--- a/Analyse/QuickViewDatabase.xlsx
+++ b/Analyse/QuickViewDatabase.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike\School\Bachelorproef\verkeer-2\Analyse\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="96" yWindow="60" windowWidth="22932" windowHeight="9504"/>
   </bookViews>
@@ -47,8 +52,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +108,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -135,13 +148,49 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Reistijden tijdens weekend 5</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> tot 7 maart </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1381,6 +1430,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-66B7-4257-AFC0-B60489437BD0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2621,8 +2676,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-66B7-4257-AFC0-B60489437BD0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="96844800"/>
         <c:axId val="96953088"/>
       </c:lineChart>
@@ -2631,14 +2700,18 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="96953088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="96953088"/>
@@ -2647,9 +2720,12 @@
           <c:max val="1200"/>
           <c:min val="600"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="96844800"/>
         <c:crosses val="autoZero"/>
@@ -2659,8 +2735,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2674,16 +2753,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2736,7 +2815,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-thema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Kantoor">
       <a:dk1>
@@ -2778,7 +2857,7 @@
     </a:clrScheme>
     <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2810,9 +2889,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2844,6 +2924,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kantoor">
@@ -3019,14 +3100,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N809"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T47" sqref="T47"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
@@ -3036,7 +3117,7 @@
     <col min="11" max="14" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3074,7 +3155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" hidden="1">
+    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>734</v>
       </c>
@@ -3112,7 +3193,7 @@
         <v>1457176052000</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>691</v>
       </c>
@@ -3150,7 +3231,7 @@
         <v>1457176351000</v>
       </c>
     </row>
-    <row r="4" spans="1:14" hidden="1">
+    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>729</v>
       </c>
@@ -3188,7 +3269,7 @@
         <v>1457176651000</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>681</v>
       </c>
@@ -3226,7 +3307,7 @@
         <v>1457176951000</v>
       </c>
     </row>
-    <row r="6" spans="1:14" hidden="1">
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>731</v>
       </c>
@@ -3264,7 +3345,7 @@
         <v>1457177251000</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>693</v>
       </c>
@@ -3302,7 +3383,7 @@
         <v>1457177551000</v>
       </c>
     </row>
-    <row r="8" spans="1:14" hidden="1">
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>735</v>
       </c>
@@ -3340,7 +3421,7 @@
         <v>1457177851000</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>684</v>
       </c>
@@ -3378,7 +3459,7 @@
         <v>1457178151000</v>
       </c>
     </row>
-    <row r="10" spans="1:14" hidden="1">
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>724</v>
       </c>
@@ -3416,7 +3497,7 @@
         <v>1457178451000</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>688</v>
       </c>
@@ -3454,7 +3535,7 @@
         <v>1457178751000</v>
       </c>
     </row>
-    <row r="12" spans="1:14" hidden="1">
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>717</v>
       </c>
@@ -3492,7 +3573,7 @@
         <v>1457179051000</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>720</v>
       </c>
@@ -3530,7 +3611,7 @@
         <v>1457179351000</v>
       </c>
     </row>
-    <row r="14" spans="1:14" hidden="1">
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>729</v>
       </c>
@@ -3568,7 +3649,7 @@
         <v>1457179651000</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>707</v>
       </c>
@@ -3606,7 +3687,7 @@
         <v>1457179951000</v>
       </c>
     </row>
-    <row r="16" spans="1:14" hidden="1">
+    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>727</v>
       </c>
@@ -3644,7 +3725,7 @@
         <v>1457180251000</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>690</v>
       </c>
@@ -3682,7 +3763,7 @@
         <v>1457180551000</v>
       </c>
     </row>
-    <row r="18" spans="1:14" hidden="1">
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>722</v>
       </c>
@@ -3720,7 +3801,7 @@
         <v>1457180851000</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>703</v>
       </c>
@@ -3758,7 +3839,7 @@
         <v>1457181151000</v>
       </c>
     </row>
-    <row r="20" spans="1:14" hidden="1">
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>719</v>
       </c>
@@ -3796,7 +3877,7 @@
         <v>1457181451000</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>723</v>
       </c>
@@ -3834,7 +3915,7 @@
         <v>1457181751000</v>
       </c>
     </row>
-    <row r="22" spans="1:14" hidden="1">
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>719</v>
       </c>
@@ -3872,7 +3953,7 @@
         <v>1457182051000</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>697</v>
       </c>
@@ -3910,7 +3991,7 @@
         <v>1457182351000</v>
       </c>
     </row>
-    <row r="24" spans="1:14" hidden="1">
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>706</v>
       </c>
@@ -3948,7 +4029,7 @@
         <v>1457182651000</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>699</v>
       </c>
@@ -3986,7 +4067,7 @@
         <v>1457182951000</v>
       </c>
     </row>
-    <row r="26" spans="1:14" hidden="1">
+    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>722</v>
       </c>
@@ -4024,7 +4105,7 @@
         <v>1457183251000</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>690</v>
       </c>
@@ -4062,7 +4143,7 @@
         <v>1457183551000</v>
       </c>
     </row>
-    <row r="28" spans="1:14" hidden="1">
+    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>727</v>
       </c>
@@ -4100,7 +4181,7 @@
         <v>1457183851000</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>686</v>
       </c>
@@ -4138,7 +4219,7 @@
         <v>1457184151000</v>
       </c>
     </row>
-    <row r="30" spans="1:14" hidden="1">
+    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>714</v>
       </c>
@@ -4176,7 +4257,7 @@
         <v>1457184451000</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>683</v>
       </c>
@@ -4214,7 +4295,7 @@
         <v>1457184751000</v>
       </c>
     </row>
-    <row r="32" spans="1:14" hidden="1">
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>712</v>
       </c>
@@ -4252,7 +4333,7 @@
         <v>1457185051000</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>698</v>
       </c>
@@ -4290,7 +4371,7 @@
         <v>1457185351000</v>
       </c>
     </row>
-    <row r="34" spans="1:14" hidden="1">
+    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>711</v>
       </c>
@@ -4328,7 +4409,7 @@
         <v>1457185651000</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>690</v>
       </c>
@@ -4366,7 +4447,7 @@
         <v>1457185951000</v>
       </c>
     </row>
-    <row r="36" spans="1:14" hidden="1">
+    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>709</v>
       </c>
@@ -4404,7 +4485,7 @@
         <v>1457186251000</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>684</v>
       </c>
@@ -4442,7 +4523,7 @@
         <v>1457186551000</v>
       </c>
     </row>
-    <row r="38" spans="1:14" hidden="1">
+    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>709</v>
       </c>
@@ -4480,7 +4561,7 @@
         <v>1457186851000</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>680</v>
       </c>
@@ -4518,7 +4599,7 @@
         <v>1457187151000</v>
       </c>
     </row>
-    <row r="40" spans="1:14" hidden="1">
+    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>708</v>
       </c>
@@ -4556,7 +4637,7 @@
         <v>1457187451000</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>688</v>
       </c>
@@ -4594,7 +4675,7 @@
         <v>1457187751000</v>
       </c>
     </row>
-    <row r="42" spans="1:14" hidden="1">
+    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>714</v>
       </c>
@@ -4632,7 +4713,7 @@
         <v>1457188051000</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>689</v>
       </c>
@@ -4670,7 +4751,7 @@
         <v>1457188351000</v>
       </c>
     </row>
-    <row r="44" spans="1:14" hidden="1">
+    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>719</v>
       </c>
@@ -4708,7 +4789,7 @@
         <v>1457188651000</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>697</v>
       </c>
@@ -4746,7 +4827,7 @@
         <v>1457188951000</v>
       </c>
     </row>
-    <row r="46" spans="1:14" hidden="1">
+    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>717</v>
       </c>
@@ -4784,7 +4865,7 @@
         <v>1457189251000</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>678</v>
       </c>
@@ -4822,7 +4903,7 @@
         <v>1457189551000</v>
       </c>
     </row>
-    <row r="48" spans="1:14" hidden="1">
+    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>735</v>
       </c>
@@ -4860,7 +4941,7 @@
         <v>1457189851000</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>697</v>
       </c>
@@ -4898,7 +4979,7 @@
         <v>1457190151000</v>
       </c>
     </row>
-    <row r="50" spans="1:14" hidden="1">
+    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>735</v>
       </c>
@@ -4936,7 +5017,7 @@
         <v>1457190451000</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>703</v>
       </c>
@@ -4974,7 +5055,7 @@
         <v>1457190751000</v>
       </c>
     </row>
-    <row r="52" spans="1:14" hidden="1">
+    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>734</v>
       </c>
@@ -5012,7 +5093,7 @@
         <v>1457191051000</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>692</v>
       </c>
@@ -5050,7 +5131,7 @@
         <v>1457191351000</v>
       </c>
     </row>
-    <row r="54" spans="1:14" hidden="1">
+    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>721</v>
       </c>
@@ -5088,7 +5169,7 @@
         <v>1457191651000</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>685</v>
       </c>
@@ -5126,7 +5207,7 @@
         <v>1457191951000</v>
       </c>
     </row>
-    <row r="56" spans="1:14" hidden="1">
+    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>722</v>
       </c>
@@ -5164,7 +5245,7 @@
         <v>1457192251000</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>682</v>
       </c>
@@ -5202,7 +5283,7 @@
         <v>1457192551000</v>
       </c>
     </row>
-    <row r="58" spans="1:14" hidden="1">
+    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>719</v>
       </c>
@@ -5240,7 +5321,7 @@
         <v>1457192851000</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>679</v>
       </c>
@@ -5278,7 +5359,7 @@
         <v>1457193151000</v>
       </c>
     </row>
-    <row r="60" spans="1:14" hidden="1">
+    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>722</v>
       </c>
@@ -5316,7 +5397,7 @@
         <v>1457193451000</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>674</v>
       </c>
@@ -5354,7 +5435,7 @@
         <v>1457193751000</v>
       </c>
     </row>
-    <row r="62" spans="1:14" hidden="1">
+    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>719</v>
       </c>
@@ -5392,7 +5473,7 @@
         <v>1457194051000</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>674</v>
       </c>
@@ -5430,7 +5511,7 @@
         <v>1457194351000</v>
       </c>
     </row>
-    <row r="64" spans="1:14" hidden="1">
+    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>721</v>
       </c>
@@ -5468,7 +5549,7 @@
         <v>1457194651000</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>697</v>
       </c>
@@ -5506,7 +5587,7 @@
         <v>1457194951000</v>
       </c>
     </row>
-    <row r="66" spans="1:14" hidden="1">
+    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>725</v>
       </c>
@@ -5544,7 +5625,7 @@
         <v>1457195251000</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>690</v>
       </c>
@@ -5582,7 +5663,7 @@
         <v>1457195551000</v>
       </c>
     </row>
-    <row r="68" spans="1:14" hidden="1">
+    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>723</v>
       </c>
@@ -5620,7 +5701,7 @@
         <v>1457195851000</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>683</v>
       </c>
@@ -5658,7 +5739,7 @@
         <v>1457196151000</v>
       </c>
     </row>
-    <row r="70" spans="1:14" hidden="1">
+    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>717</v>
       </c>
@@ -5696,7 +5777,7 @@
         <v>1457196451000</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>679</v>
       </c>
@@ -5734,7 +5815,7 @@
         <v>1457196751000</v>
       </c>
     </row>
-    <row r="72" spans="1:14" hidden="1">
+    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>710</v>
       </c>
@@ -5772,7 +5853,7 @@
         <v>1457197051000</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>677</v>
       </c>
@@ -5810,7 +5891,7 @@
         <v>1457197351000</v>
       </c>
     </row>
-    <row r="74" spans="1:14" hidden="1">
+    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>719</v>
       </c>
@@ -5848,7 +5929,7 @@
         <v>1457197651000</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>674</v>
       </c>
@@ -5886,7 +5967,7 @@
         <v>1457197951000</v>
       </c>
     </row>
-    <row r="76" spans="1:14" hidden="1">
+    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>711</v>
       </c>
@@ -5924,7 +6005,7 @@
         <v>1457198251000</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>675</v>
       </c>
@@ -5962,7 +6043,7 @@
         <v>1457198551000</v>
       </c>
     </row>
-    <row r="78" spans="1:14" hidden="1">
+    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>710</v>
       </c>
@@ -6000,7 +6081,7 @@
         <v>1457198851000</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>674</v>
       </c>
@@ -6038,7 +6119,7 @@
         <v>1457199151000</v>
       </c>
     </row>
-    <row r="80" spans="1:14" hidden="1">
+    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>711</v>
       </c>
@@ -6076,7 +6157,7 @@
         <v>1457199451000</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>684</v>
       </c>
@@ -6114,7 +6195,7 @@
         <v>1457199751000</v>
       </c>
     </row>
-    <row r="82" spans="1:14" hidden="1">
+    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>726</v>
       </c>
@@ -6152,7 +6233,7 @@
         <v>1457200051000</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>678</v>
       </c>
@@ -6190,7 +6271,7 @@
         <v>1457200351000</v>
       </c>
     </row>
-    <row r="84" spans="1:14" hidden="1">
+    <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>723</v>
       </c>
@@ -6228,7 +6309,7 @@
         <v>1457200651000</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>676</v>
       </c>
@@ -6266,7 +6347,7 @@
         <v>1457200951000</v>
       </c>
     </row>
-    <row r="86" spans="1:14" hidden="1">
+    <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>714</v>
       </c>
@@ -6304,7 +6385,7 @@
         <v>1457202027000</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>674</v>
       </c>
@@ -6342,7 +6423,7 @@
         <v>1457202327000</v>
       </c>
     </row>
-    <row r="88" spans="1:14" hidden="1">
+    <row r="88" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>709</v>
       </c>
@@ -6380,7 +6461,7 @@
         <v>1457202627000</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>673</v>
       </c>
@@ -6418,7 +6499,7 @@
         <v>1457202927000</v>
       </c>
     </row>
-    <row r="90" spans="1:14" hidden="1">
+    <row r="90" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>705</v>
       </c>
@@ -6456,7 +6537,7 @@
         <v>1457203227000</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>673</v>
       </c>
@@ -6494,7 +6575,7 @@
         <v>1457203527000</v>
       </c>
     </row>
-    <row r="92" spans="1:14" hidden="1">
+    <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>724</v>
       </c>
@@ -6532,7 +6613,7 @@
         <v>1457203827000</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>672</v>
       </c>
@@ -6570,7 +6651,7 @@
         <v>1457204127000</v>
       </c>
     </row>
-    <row r="94" spans="1:14" hidden="1">
+    <row r="94" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>723</v>
       </c>
@@ -6608,7 +6689,7 @@
         <v>1457204427000</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>689</v>
       </c>
@@ -6646,7 +6727,7 @@
         <v>1457204727000</v>
       </c>
     </row>
-    <row r="96" spans="1:14" hidden="1">
+    <row r="96" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>700</v>
       </c>
@@ -6684,7 +6765,7 @@
         <v>1457205027000</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>681</v>
       </c>
@@ -6722,7 +6803,7 @@
         <v>1457205327000</v>
       </c>
     </row>
-    <row r="98" spans="1:14" hidden="1">
+    <row r="98" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>697</v>
       </c>
@@ -6760,7 +6841,7 @@
         <v>1457205628000</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>684</v>
       </c>
@@ -6798,7 +6879,7 @@
         <v>1457205927000</v>
       </c>
     </row>
-    <row r="100" spans="1:14" hidden="1">
+    <row r="100" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>692</v>
       </c>
@@ -6836,7 +6917,7 @@
         <v>1457206227000</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>682</v>
       </c>
@@ -6874,7 +6955,7 @@
         <v>1457206527000</v>
       </c>
     </row>
-    <row r="102" spans="1:14" hidden="1">
+    <row r="102" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>690</v>
       </c>
@@ -6912,7 +6993,7 @@
         <v>1457206827000</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>676</v>
       </c>
@@ -6950,7 +7031,7 @@
         <v>1457207127000</v>
       </c>
     </row>
-    <row r="104" spans="1:14" hidden="1">
+    <row r="104" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>696</v>
       </c>
@@ -6988,7 +7069,7 @@
         <v>1457207427000</v>
       </c>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>674</v>
       </c>
@@ -7026,7 +7107,7 @@
         <v>1457207727000</v>
       </c>
     </row>
-    <row r="106" spans="1:14" hidden="1">
+    <row r="106" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>695</v>
       </c>
@@ -7064,7 +7145,7 @@
         <v>1457208027000</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>677</v>
       </c>
@@ -7102,7 +7183,7 @@
         <v>1457208327000</v>
       </c>
     </row>
-    <row r="108" spans="1:14" hidden="1">
+    <row r="108" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>696</v>
       </c>
@@ -7140,7 +7221,7 @@
         <v>1457208627000</v>
       </c>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>706</v>
       </c>
@@ -7178,7 +7259,7 @@
         <v>1457208927000</v>
       </c>
     </row>
-    <row r="110" spans="1:14" hidden="1">
+    <row r="110" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>698</v>
       </c>
@@ -7216,7 +7297,7 @@
         <v>1457209227000</v>
       </c>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>701</v>
       </c>
@@ -7254,7 +7335,7 @@
         <v>1457209527000</v>
       </c>
     </row>
-    <row r="112" spans="1:14" hidden="1">
+    <row r="112" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>707</v>
       </c>
@@ -7292,7 +7373,7 @@
         <v>1457209827000</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>711</v>
       </c>
@@ -7330,7 +7411,7 @@
         <v>1457210127000</v>
       </c>
     </row>
-    <row r="114" spans="1:14" hidden="1">
+    <row r="114" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>713</v>
       </c>
@@ -7368,7 +7449,7 @@
         <v>1457210427000</v>
       </c>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>697</v>
       </c>
@@ -7406,7 +7487,7 @@
         <v>1457210727000</v>
       </c>
     </row>
-    <row r="116" spans="1:14" hidden="1">
+    <row r="116" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>715</v>
       </c>
@@ -7444,7 +7525,7 @@
         <v>1457211027000</v>
       </c>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>688</v>
       </c>
@@ -7482,7 +7563,7 @@
         <v>1457211327000</v>
       </c>
     </row>
-    <row r="118" spans="1:14" hidden="1">
+    <row r="118" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>714</v>
       </c>
@@ -7520,7 +7601,7 @@
         <v>1457211627000</v>
       </c>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>682</v>
       </c>
@@ -7558,7 +7639,7 @@
         <v>1457211927000</v>
       </c>
     </row>
-    <row r="120" spans="1:14" hidden="1">
+    <row r="120" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>715</v>
       </c>
@@ -7596,7 +7677,7 @@
         <v>1457212227000</v>
       </c>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>680</v>
       </c>
@@ -7634,7 +7715,7 @@
         <v>1457212527000</v>
       </c>
     </row>
-    <row r="122" spans="1:14" hidden="1">
+    <row r="122" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>710</v>
       </c>
@@ -7672,7 +7753,7 @@
         <v>1457212827000</v>
       </c>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>675</v>
       </c>
@@ -7710,7 +7791,7 @@
         <v>1457213127000</v>
       </c>
     </row>
-    <row r="124" spans="1:14" hidden="1">
+    <row r="124" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>710</v>
       </c>
@@ -7748,7 +7829,7 @@
         <v>1457213427000</v>
       </c>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>670</v>
       </c>
@@ -7786,7 +7867,7 @@
         <v>1457213727000</v>
       </c>
     </row>
-    <row r="126" spans="1:14" hidden="1">
+    <row r="126" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>707</v>
       </c>
@@ -7824,7 +7905,7 @@
         <v>1457214027000</v>
       </c>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>669</v>
       </c>
@@ -7862,7 +7943,7 @@
         <v>1457214327000</v>
       </c>
     </row>
-    <row r="128" spans="1:14" hidden="1">
+    <row r="128" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>713</v>
       </c>
@@ -7900,7 +7981,7 @@
         <v>1457214627000</v>
       </c>
     </row>
-    <row r="129" spans="1:14">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>683</v>
       </c>
@@ -7938,7 +8019,7 @@
         <v>1457214927000</v>
       </c>
     </row>
-    <row r="130" spans="1:14" hidden="1">
+    <row r="130" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>709</v>
       </c>
@@ -7976,7 +8057,7 @@
         <v>1457215227000</v>
       </c>
     </row>
-    <row r="131" spans="1:14">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>691</v>
       </c>
@@ -8014,7 +8095,7 @@
         <v>1457215229000</v>
       </c>
     </row>
-    <row r="132" spans="1:14" hidden="1">
+    <row r="132" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>711</v>
       </c>
@@ -8052,7 +8133,7 @@
         <v>1457236827000</v>
       </c>
     </row>
-    <row r="133" spans="1:14">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>679</v>
       </c>
@@ -8090,7 +8171,7 @@
         <v>1457237127000</v>
       </c>
     </row>
-    <row r="134" spans="1:14" hidden="1">
+    <row r="134" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>717</v>
       </c>
@@ -8128,7 +8209,7 @@
         <v>1457237427000</v>
       </c>
     </row>
-    <row r="135" spans="1:14">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>676</v>
       </c>
@@ -8166,7 +8247,7 @@
         <v>1457237727000</v>
       </c>
     </row>
-    <row r="136" spans="1:14" hidden="1">
+    <row r="136" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>723</v>
       </c>
@@ -8204,7 +8285,7 @@
         <v>1457238027000</v>
       </c>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>669</v>
       </c>
@@ -8242,7 +8323,7 @@
         <v>1457238327000</v>
       </c>
     </row>
-    <row r="138" spans="1:14" hidden="1">
+    <row r="138" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>722</v>
       </c>
@@ -8280,7 +8361,7 @@
         <v>1457238627000</v>
       </c>
     </row>
-    <row r="139" spans="1:14">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>668</v>
       </c>
@@ -8318,7 +8399,7 @@
         <v>1457238927000</v>
       </c>
     </row>
-    <row r="140" spans="1:14" hidden="1">
+    <row r="140" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>726</v>
       </c>
@@ -8356,7 +8437,7 @@
         <v>1457239227000</v>
       </c>
     </row>
-    <row r="141" spans="1:14">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>668</v>
       </c>
@@ -8394,7 +8475,7 @@
         <v>1457239527000</v>
       </c>
     </row>
-    <row r="142" spans="1:14" hidden="1">
+    <row r="142" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>717</v>
       </c>
@@ -8432,7 +8513,7 @@
         <v>1457239827000</v>
       </c>
     </row>
-    <row r="143" spans="1:14">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>667</v>
       </c>
@@ -8470,7 +8551,7 @@
         <v>1457240127000</v>
       </c>
     </row>
-    <row r="144" spans="1:14" hidden="1">
+    <row r="144" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>716</v>
       </c>
@@ -8508,7 +8589,7 @@
         <v>1457240427000</v>
       </c>
     </row>
-    <row r="145" spans="1:14">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>668</v>
       </c>
@@ -8546,7 +8627,7 @@
         <v>1457240727000</v>
       </c>
     </row>
-    <row r="146" spans="1:14" hidden="1">
+    <row r="146" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>728</v>
       </c>
@@ -8584,7 +8665,7 @@
         <v>1457241027000</v>
       </c>
     </row>
-    <row r="147" spans="1:14">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>677</v>
       </c>
@@ -8622,7 +8703,7 @@
         <v>1457241327000</v>
       </c>
     </row>
-    <row r="148" spans="1:14" hidden="1">
+    <row r="148" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>732</v>
       </c>
@@ -8660,7 +8741,7 @@
         <v>1457241627000</v>
       </c>
     </row>
-    <row r="149" spans="1:14">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>678</v>
       </c>
@@ -8698,7 +8779,7 @@
         <v>1457241927000</v>
       </c>
     </row>
-    <row r="150" spans="1:14" hidden="1">
+    <row r="150" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>728</v>
       </c>
@@ -8736,7 +8817,7 @@
         <v>1457242227000</v>
       </c>
     </row>
-    <row r="151" spans="1:14">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>684</v>
       </c>
@@ -8774,7 +8855,7 @@
         <v>1457242527000</v>
       </c>
     </row>
-    <row r="152" spans="1:14" hidden="1">
+    <row r="152" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>714</v>
       </c>
@@ -8812,7 +8893,7 @@
         <v>1457242827000</v>
       </c>
     </row>
-    <row r="153" spans="1:14">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>675</v>
       </c>
@@ -8850,7 +8931,7 @@
         <v>1457243127000</v>
       </c>
     </row>
-    <row r="154" spans="1:14" hidden="1">
+    <row r="154" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>714</v>
       </c>
@@ -8888,7 +8969,7 @@
         <v>1457243427000</v>
       </c>
     </row>
-    <row r="155" spans="1:14">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>675</v>
       </c>
@@ -8926,7 +9007,7 @@
         <v>1457243727000</v>
       </c>
     </row>
-    <row r="156" spans="1:14" hidden="1">
+    <row r="156" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>716</v>
       </c>
@@ -8964,7 +9045,7 @@
         <v>1457244027000</v>
       </c>
     </row>
-    <row r="157" spans="1:14">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>672</v>
       </c>
@@ -9002,7 +9083,7 @@
         <v>1457244327000</v>
       </c>
     </row>
-    <row r="158" spans="1:14" hidden="1">
+    <row r="158" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>715</v>
       </c>
@@ -9040,7 +9121,7 @@
         <v>1457244627000</v>
       </c>
     </row>
-    <row r="159" spans="1:14">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>667</v>
       </c>
@@ -9078,7 +9159,7 @@
         <v>1457244927000</v>
       </c>
     </row>
-    <row r="160" spans="1:14" hidden="1">
+    <row r="160" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>710</v>
       </c>
@@ -9116,7 +9197,7 @@
         <v>1457245227000</v>
       </c>
     </row>
-    <row r="161" spans="1:14">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>673</v>
       </c>
@@ -9154,7 +9235,7 @@
         <v>1457245527000</v>
       </c>
     </row>
-    <row r="162" spans="1:14" hidden="1">
+    <row r="162" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>709</v>
       </c>
@@ -9192,7 +9273,7 @@
         <v>1457245827000</v>
       </c>
     </row>
-    <row r="163" spans="1:14">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>671</v>
       </c>
@@ -9230,7 +9311,7 @@
         <v>1457246127000</v>
       </c>
     </row>
-    <row r="164" spans="1:14" hidden="1">
+    <row r="164" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>708</v>
       </c>
@@ -9268,7 +9349,7 @@
         <v>1457246427000</v>
       </c>
     </row>
-    <row r="165" spans="1:14">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>668</v>
       </c>
@@ -9306,7 +9387,7 @@
         <v>1457246727000</v>
       </c>
     </row>
-    <row r="166" spans="1:14" hidden="1">
+    <row r="166" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>709</v>
       </c>
@@ -9344,7 +9425,7 @@
         <v>1457247027000</v>
       </c>
     </row>
-    <row r="167" spans="1:14">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>668</v>
       </c>
@@ -9382,7 +9463,7 @@
         <v>1457247327000</v>
       </c>
     </row>
-    <row r="168" spans="1:14" hidden="1">
+    <row r="168" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>714</v>
       </c>
@@ -9420,7 +9501,7 @@
         <v>1457247627000</v>
       </c>
     </row>
-    <row r="169" spans="1:14">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>668</v>
       </c>
@@ -9458,7 +9539,7 @@
         <v>1457247927000</v>
       </c>
     </row>
-    <row r="170" spans="1:14" hidden="1">
+    <row r="170" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>792</v>
       </c>
@@ -9496,7 +9577,7 @@
         <v>1457248227000</v>
       </c>
     </row>
-    <row r="171" spans="1:14">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>666</v>
       </c>
@@ -9534,7 +9615,7 @@
         <v>1457248527000</v>
       </c>
     </row>
-    <row r="172" spans="1:14" hidden="1">
+    <row r="172" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>786</v>
       </c>
@@ -9572,7 +9653,7 @@
         <v>1457248827000</v>
       </c>
     </row>
-    <row r="173" spans="1:14">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>666</v>
       </c>
@@ -9610,7 +9691,7 @@
         <v>1457249127000</v>
       </c>
     </row>
-    <row r="174" spans="1:14" hidden="1">
+    <row r="174" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>779</v>
       </c>
@@ -9648,7 +9729,7 @@
         <v>1457249427000</v>
       </c>
     </row>
-    <row r="175" spans="1:14">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>666</v>
       </c>
@@ -9686,7 +9767,7 @@
         <v>1457249727000</v>
       </c>
     </row>
-    <row r="176" spans="1:14" hidden="1">
+    <row r="176" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>690</v>
       </c>
@@ -9724,7 +9805,7 @@
         <v>1457250027000</v>
       </c>
     </row>
-    <row r="177" spans="1:14">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>665</v>
       </c>
@@ -9762,7 +9843,7 @@
         <v>1457250327000</v>
       </c>
     </row>
-    <row r="178" spans="1:14" hidden="1">
+    <row r="178" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>687</v>
       </c>
@@ -9800,7 +9881,7 @@
         <v>1457250627000</v>
       </c>
     </row>
-    <row r="179" spans="1:14">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>665</v>
       </c>
@@ -9838,7 +9919,7 @@
         <v>1457250927000</v>
       </c>
     </row>
-    <row r="180" spans="1:14" hidden="1">
+    <row r="180" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>686</v>
       </c>
@@ -9876,7 +9957,7 @@
         <v>1457251227000</v>
       </c>
     </row>
-    <row r="181" spans="1:14">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>663</v>
       </c>
@@ -9914,7 +9995,7 @@
         <v>1457251527000</v>
       </c>
     </row>
-    <row r="182" spans="1:14" hidden="1">
+    <row r="182" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>679</v>
       </c>
@@ -9952,7 +10033,7 @@
         <v>1457251827000</v>
       </c>
     </row>
-    <row r="183" spans="1:14">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>688</v>
       </c>
@@ -9990,7 +10071,7 @@
         <v>1457252127000</v>
       </c>
     </row>
-    <row r="184" spans="1:14" hidden="1">
+    <row r="184" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>681</v>
       </c>
@@ -10028,7 +10109,7 @@
         <v>1457252427000</v>
       </c>
     </row>
-    <row r="185" spans="1:14">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>723</v>
       </c>
@@ -10066,7 +10147,7 @@
         <v>1457252727000</v>
       </c>
     </row>
-    <row r="186" spans="1:14" hidden="1">
+    <row r="186" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>679</v>
       </c>
@@ -10104,7 +10185,7 @@
         <v>1457253027000</v>
       </c>
     </row>
-    <row r="187" spans="1:14">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>700</v>
       </c>
@@ -10142,7 +10223,7 @@
         <v>1457253327000</v>
       </c>
     </row>
-    <row r="188" spans="1:14" hidden="1">
+    <row r="188" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>681</v>
       </c>
@@ -10180,7 +10261,7 @@
         <v>1457253627000</v>
       </c>
     </row>
-    <row r="189" spans="1:14">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>714</v>
       </c>
@@ -10218,7 +10299,7 @@
         <v>1457253927000</v>
       </c>
     </row>
-    <row r="190" spans="1:14" hidden="1">
+    <row r="190" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>690</v>
       </c>
@@ -10256,7 +10337,7 @@
         <v>1457254227000</v>
       </c>
     </row>
-    <row r="191" spans="1:14">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>722</v>
       </c>
@@ -10294,7 +10375,7 @@
         <v>1457254527000</v>
       </c>
     </row>
-    <row r="192" spans="1:14" hidden="1">
+    <row r="192" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>690</v>
       </c>
@@ -10332,7 +10413,7 @@
         <v>1457254827000</v>
       </c>
     </row>
-    <row r="193" spans="1:14">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>699</v>
       </c>
@@ -10370,7 +10451,7 @@
         <v>1457255127000</v>
       </c>
     </row>
-    <row r="194" spans="1:14" hidden="1">
+    <row r="194" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>696</v>
       </c>
@@ -10408,7 +10489,7 @@
         <v>1457255427000</v>
       </c>
     </row>
-    <row r="195" spans="1:14">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>694</v>
       </c>
@@ -10446,7 +10527,7 @@
         <v>1457255727000</v>
       </c>
     </row>
-    <row r="196" spans="1:14" hidden="1">
+    <row r="196" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>697</v>
       </c>
@@ -10484,7 +10565,7 @@
         <v>1457256027000</v>
       </c>
     </row>
-    <row r="197" spans="1:14">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>673</v>
       </c>
@@ -10522,7 +10603,7 @@
         <v>1457256327000</v>
       </c>
     </row>
-    <row r="198" spans="1:14" hidden="1">
+    <row r="198" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>697</v>
       </c>
@@ -10560,7 +10641,7 @@
         <v>1457256627000</v>
       </c>
     </row>
-    <row r="199" spans="1:14">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>668</v>
       </c>
@@ -10598,7 +10679,7 @@
         <v>1457256927000</v>
       </c>
     </row>
-    <row r="200" spans="1:14" hidden="1">
+    <row r="200" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>691</v>
       </c>
@@ -10636,7 +10717,7 @@
         <v>1457257227000</v>
       </c>
     </row>
-    <row r="201" spans="1:14">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>664</v>
       </c>
@@ -10674,7 +10755,7 @@
         <v>1457257527000</v>
       </c>
     </row>
-    <row r="202" spans="1:14" hidden="1">
+    <row r="202" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>682</v>
       </c>
@@ -10712,7 +10793,7 @@
         <v>1457257827000</v>
       </c>
     </row>
-    <row r="203" spans="1:14">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>661</v>
       </c>
@@ -10750,7 +10831,7 @@
         <v>1457258127000</v>
       </c>
     </row>
-    <row r="204" spans="1:14" hidden="1">
+    <row r="204" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>684</v>
       </c>
@@ -10788,7 +10869,7 @@
         <v>1457258427000</v>
       </c>
     </row>
-    <row r="205" spans="1:14">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>672</v>
       </c>
@@ -10826,7 +10907,7 @@
         <v>1457258727000</v>
       </c>
     </row>
-    <row r="206" spans="1:14" hidden="1">
+    <row r="206" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>700</v>
       </c>
@@ -10864,7 +10945,7 @@
         <v>1457259027000</v>
       </c>
     </row>
-    <row r="207" spans="1:14">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>666</v>
       </c>
@@ -10902,7 +10983,7 @@
         <v>1457259327000</v>
       </c>
     </row>
-    <row r="208" spans="1:14" hidden="1">
+    <row r="208" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>724</v>
       </c>
@@ -10940,7 +11021,7 @@
         <v>1457259627000</v>
       </c>
     </row>
-    <row r="209" spans="1:14">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>697</v>
       </c>
@@ -10978,7 +11059,7 @@
         <v>1457259927000</v>
       </c>
     </row>
-    <row r="210" spans="1:14" hidden="1">
+    <row r="210" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>716</v>
       </c>
@@ -11016,7 +11097,7 @@
         <v>1457260227000</v>
       </c>
     </row>
-    <row r="211" spans="1:14">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>694</v>
       </c>
@@ -11054,7 +11135,7 @@
         <v>1457260527000</v>
       </c>
     </row>
-    <row r="212" spans="1:14" hidden="1">
+    <row r="212" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>713</v>
       </c>
@@ -11092,7 +11173,7 @@
         <v>1457260827000</v>
       </c>
     </row>
-    <row r="213" spans="1:14">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>704</v>
       </c>
@@ -11130,7 +11211,7 @@
         <v>1457261127000</v>
       </c>
     </row>
-    <row r="214" spans="1:14" hidden="1">
+    <row r="214" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>707</v>
       </c>
@@ -11168,7 +11249,7 @@
         <v>1457261427000</v>
       </c>
     </row>
-    <row r="215" spans="1:14">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>670</v>
       </c>
@@ -11206,7 +11287,7 @@
         <v>1457261727000</v>
       </c>
     </row>
-    <row r="216" spans="1:14" hidden="1">
+    <row r="216" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>703</v>
       </c>
@@ -11244,7 +11325,7 @@
         <v>1457262027000</v>
       </c>
     </row>
-    <row r="217" spans="1:14">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>706</v>
       </c>
@@ -11282,7 +11363,7 @@
         <v>1457262327000</v>
       </c>
     </row>
-    <row r="218" spans="1:14" hidden="1">
+    <row r="218" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>700</v>
       </c>
@@ -11320,7 +11401,7 @@
         <v>1457262627000</v>
       </c>
     </row>
-    <row r="219" spans="1:14">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>670</v>
       </c>
@@ -11358,7 +11439,7 @@
         <v>1457262927000</v>
       </c>
     </row>
-    <row r="220" spans="1:14" hidden="1">
+    <row r="220" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>699</v>
       </c>
@@ -11396,7 +11477,7 @@
         <v>1457263227000</v>
       </c>
     </row>
-    <row r="221" spans="1:14">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>694</v>
       </c>
@@ -11434,7 +11515,7 @@
         <v>1457263527000</v>
       </c>
     </row>
-    <row r="222" spans="1:14" hidden="1">
+    <row r="222" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>696</v>
       </c>
@@ -11472,7 +11553,7 @@
         <v>1457263827000</v>
       </c>
     </row>
-    <row r="223" spans="1:14">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>697</v>
       </c>
@@ -11510,7 +11591,7 @@
         <v>1457264127000</v>
       </c>
     </row>
-    <row r="224" spans="1:14" hidden="1">
+    <row r="224" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>689</v>
       </c>
@@ -11548,7 +11629,7 @@
         <v>1457264427000</v>
       </c>
     </row>
-    <row r="225" spans="1:14">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>684</v>
       </c>
@@ -11586,7 +11667,7 @@
         <v>1457264727000</v>
       </c>
     </row>
-    <row r="226" spans="1:14" hidden="1">
+    <row r="226" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>690</v>
       </c>
@@ -11624,7 +11705,7 @@
         <v>1457265027000</v>
       </c>
     </row>
-    <row r="227" spans="1:14">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>681</v>
       </c>
@@ -11662,7 +11743,7 @@
         <v>1457265327000</v>
       </c>
     </row>
-    <row r="228" spans="1:14" hidden="1">
+    <row r="228" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>689</v>
       </c>
@@ -11700,7 +11781,7 @@
         <v>1457265627000</v>
       </c>
     </row>
-    <row r="229" spans="1:14">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>690</v>
       </c>
@@ -11738,7 +11819,7 @@
         <v>1457265927000</v>
       </c>
     </row>
-    <row r="230" spans="1:14" hidden="1">
+    <row r="230" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>708</v>
       </c>
@@ -11776,7 +11857,7 @@
         <v>1457266227000</v>
       </c>
     </row>
-    <row r="231" spans="1:14">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>695</v>
       </c>
@@ -11814,7 +11895,7 @@
         <v>1457266527000</v>
       </c>
     </row>
-    <row r="232" spans="1:14" hidden="1">
+    <row r="232" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>672</v>
       </c>
@@ -11852,7 +11933,7 @@
         <v>1457266827000</v>
       </c>
     </row>
-    <row r="233" spans="1:14">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>685</v>
       </c>
@@ -11890,7 +11971,7 @@
         <v>1457267127000</v>
       </c>
     </row>
-    <row r="234" spans="1:14" hidden="1">
+    <row r="234" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>669</v>
       </c>
@@ -11928,7 +12009,7 @@
         <v>1457267427000</v>
       </c>
     </row>
-    <row r="235" spans="1:14">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>686</v>
       </c>
@@ -11966,7 +12047,7 @@
         <v>1457267727000</v>
       </c>
     </row>
-    <row r="236" spans="1:14" hidden="1">
+    <row r="236" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>674</v>
       </c>
@@ -12004,7 +12085,7 @@
         <v>1457268027000</v>
       </c>
     </row>
-    <row r="237" spans="1:14">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>679</v>
       </c>
@@ -12042,7 +12123,7 @@
         <v>1457268327000</v>
       </c>
     </row>
-    <row r="238" spans="1:14" hidden="1">
+    <row r="238" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>679</v>
       </c>
@@ -12080,7 +12161,7 @@
         <v>1457268627000</v>
       </c>
     </row>
-    <row r="239" spans="1:14">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>668</v>
       </c>
@@ -12118,7 +12199,7 @@
         <v>1457268927000</v>
       </c>
     </row>
-    <row r="240" spans="1:14" hidden="1">
+    <row r="240" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>680</v>
       </c>
@@ -12156,7 +12237,7 @@
         <v>1457269227000</v>
       </c>
     </row>
-    <row r="241" spans="1:14">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>668</v>
       </c>
@@ -12194,7 +12275,7 @@
         <v>1457269527000</v>
       </c>
     </row>
-    <row r="242" spans="1:14" hidden="1">
+    <row r="242" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>681</v>
       </c>
@@ -12232,7 +12313,7 @@
         <v>1457269827000</v>
       </c>
     </row>
-    <row r="243" spans="1:14">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>686</v>
       </c>
@@ -12270,7 +12351,7 @@
         <v>1457270127000</v>
       </c>
     </row>
-    <row r="244" spans="1:14" hidden="1">
+    <row r="244" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>681</v>
       </c>
@@ -12308,7 +12389,7 @@
         <v>1457270427000</v>
       </c>
     </row>
-    <row r="245" spans="1:14">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>686</v>
       </c>
@@ -12346,7 +12427,7 @@
         <v>1457270727000</v>
       </c>
     </row>
-    <row r="246" spans="1:14" hidden="1">
+    <row r="246" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>681</v>
       </c>
@@ -12384,7 +12465,7 @@
         <v>1457271027000</v>
       </c>
     </row>
-    <row r="247" spans="1:14">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>683</v>
       </c>
@@ -12422,7 +12503,7 @@
         <v>1457271327000</v>
       </c>
     </row>
-    <row r="248" spans="1:14" hidden="1">
+    <row r="248" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>687</v>
       </c>
@@ -12460,7 +12541,7 @@
         <v>1457271627000</v>
       </c>
     </row>
-    <row r="249" spans="1:14">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>675</v>
       </c>
@@ -12498,7 +12579,7 @@
         <v>1457271927000</v>
       </c>
     </row>
-    <row r="250" spans="1:14" hidden="1">
+    <row r="250" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>685</v>
       </c>
@@ -12536,7 +12617,7 @@
         <v>1457272227000</v>
       </c>
     </row>
-    <row r="251" spans="1:14">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>687</v>
       </c>
@@ -12574,7 +12655,7 @@
         <v>1457272527000</v>
       </c>
     </row>
-    <row r="252" spans="1:14" hidden="1">
+    <row r="252" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>685</v>
       </c>
@@ -12612,7 +12693,7 @@
         <v>1457272827000</v>
       </c>
     </row>
-    <row r="253" spans="1:14">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>680</v>
       </c>
@@ -12650,7 +12731,7 @@
         <v>1457273127000</v>
       </c>
     </row>
-    <row r="254" spans="1:14" hidden="1">
+    <row r="254" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>684</v>
       </c>
@@ -12688,7 +12769,7 @@
         <v>1457273427000</v>
       </c>
     </row>
-    <row r="255" spans="1:14">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>672</v>
       </c>
@@ -12726,7 +12807,7 @@
         <v>1457273727000</v>
       </c>
     </row>
-    <row r="256" spans="1:14" hidden="1">
+    <row r="256" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>685</v>
       </c>
@@ -12764,7 +12845,7 @@
         <v>1457274027000</v>
       </c>
     </row>
-    <row r="257" spans="1:14">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>674</v>
       </c>
@@ -12802,7 +12883,7 @@
         <v>1457274327000</v>
       </c>
     </row>
-    <row r="258" spans="1:14" hidden="1">
+    <row r="258" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>684</v>
       </c>
@@ -12840,7 +12921,7 @@
         <v>1457274627000</v>
       </c>
     </row>
-    <row r="259" spans="1:14">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>670</v>
       </c>
@@ -12878,7 +12959,7 @@
         <v>1457274927000</v>
       </c>
     </row>
-    <row r="260" spans="1:14" hidden="1">
+    <row r="260" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>684</v>
       </c>
@@ -12916,7 +12997,7 @@
         <v>1457275227000</v>
       </c>
     </row>
-    <row r="261" spans="1:14">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>670</v>
       </c>
@@ -12954,7 +13035,7 @@
         <v>1457275527000</v>
       </c>
     </row>
-    <row r="262" spans="1:14" hidden="1">
+    <row r="262" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>710</v>
       </c>
@@ -12992,7 +13073,7 @@
         <v>1457275827000</v>
       </c>
     </row>
-    <row r="263" spans="1:14">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>670</v>
       </c>
@@ -13030,7 +13111,7 @@
         <v>1457276127000</v>
       </c>
     </row>
-    <row r="264" spans="1:14" hidden="1">
+    <row r="264" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>710</v>
       </c>
@@ -13068,7 +13149,7 @@
         <v>1457276427000</v>
       </c>
     </row>
-    <row r="265" spans="1:14">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>677</v>
       </c>
@@ -13106,7 +13187,7 @@
         <v>1457276727000</v>
       </c>
     </row>
-    <row r="266" spans="1:14" hidden="1">
+    <row r="266" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>710</v>
       </c>
@@ -13144,7 +13225,7 @@
         <v>1457277027000</v>
       </c>
     </row>
-    <row r="267" spans="1:14">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>672</v>
       </c>
@@ -13182,7 +13263,7 @@
         <v>1457277327000</v>
       </c>
     </row>
-    <row r="268" spans="1:14" hidden="1">
+    <row r="268" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>709</v>
       </c>
@@ -13220,7 +13301,7 @@
         <v>1457277627000</v>
       </c>
     </row>
-    <row r="269" spans="1:14">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>668</v>
       </c>
@@ -13258,7 +13339,7 @@
         <v>1457277927000</v>
       </c>
     </row>
-    <row r="270" spans="1:14" hidden="1">
+    <row r="270" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>709</v>
       </c>
@@ -13296,7 +13377,7 @@
         <v>1457278227000</v>
       </c>
     </row>
-    <row r="271" spans="1:14">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>665</v>
       </c>
@@ -13334,7 +13415,7 @@
         <v>1457278527000</v>
       </c>
     </row>
-    <row r="272" spans="1:14" hidden="1">
+    <row r="272" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>709</v>
       </c>
@@ -13372,7 +13453,7 @@
         <v>1457278827000</v>
       </c>
     </row>
-    <row r="273" spans="1:14">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>661</v>
       </c>
@@ -13410,7 +13491,7 @@
         <v>1457279127000</v>
       </c>
     </row>
-    <row r="274" spans="1:14" hidden="1">
+    <row r="274" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>709</v>
       </c>
@@ -13448,7 +13529,7 @@
         <v>1457279427000</v>
       </c>
     </row>
-    <row r="275" spans="1:14">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>660</v>
       </c>
@@ -13486,7 +13567,7 @@
         <v>1457279727000</v>
       </c>
     </row>
-    <row r="276" spans="1:14" hidden="1">
+    <row r="276" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>709</v>
       </c>
@@ -13524,7 +13605,7 @@
         <v>1457280027000</v>
       </c>
     </row>
-    <row r="277" spans="1:14">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>660</v>
       </c>
@@ -13562,7 +13643,7 @@
         <v>1457280327000</v>
       </c>
     </row>
-    <row r="278" spans="1:14" hidden="1">
+    <row r="278" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>702</v>
       </c>
@@ -13600,7 +13681,7 @@
         <v>1457280627000</v>
       </c>
     </row>
-    <row r="279" spans="1:14">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>660</v>
       </c>
@@ -13638,7 +13719,7 @@
         <v>1457280927000</v>
       </c>
     </row>
-    <row r="280" spans="1:14" hidden="1">
+    <row r="280" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>687</v>
       </c>
@@ -13676,7 +13757,7 @@
         <v>1457281227000</v>
       </c>
     </row>
-    <row r="281" spans="1:14">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>660</v>
       </c>
@@ -13714,7 +13795,7 @@
         <v>1457281527000</v>
       </c>
     </row>
-    <row r="282" spans="1:14" hidden="1">
+    <row r="282" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>672</v>
       </c>
@@ -13752,7 +13833,7 @@
         <v>1457281827000</v>
       </c>
     </row>
-    <row r="283" spans="1:14">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>660</v>
       </c>
@@ -13790,7 +13871,7 @@
         <v>1457282127000</v>
       </c>
     </row>
-    <row r="284" spans="1:14" hidden="1">
+    <row r="284" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>671</v>
       </c>
@@ -13828,7 +13909,7 @@
         <v>1457282427000</v>
       </c>
     </row>
-    <row r="285" spans="1:14">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>660</v>
       </c>
@@ -13866,7 +13947,7 @@
         <v>1457282727000</v>
       </c>
     </row>
-    <row r="286" spans="1:14" hidden="1">
+    <row r="286" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>665</v>
       </c>
@@ -13904,7 +13985,7 @@
         <v>1457283027000</v>
       </c>
     </row>
-    <row r="287" spans="1:14">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>676</v>
       </c>
@@ -13942,7 +14023,7 @@
         <v>1457283327000</v>
       </c>
     </row>
-    <row r="288" spans="1:14" hidden="1">
+    <row r="288" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>665</v>
       </c>
@@ -13980,7 +14061,7 @@
         <v>1457283627000</v>
       </c>
     </row>
-    <row r="289" spans="1:14">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>688</v>
       </c>
@@ -14018,7 +14099,7 @@
         <v>1457283927000</v>
       </c>
     </row>
-    <row r="290" spans="1:14" hidden="1">
+    <row r="290" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>652</v>
       </c>
@@ -14056,7 +14137,7 @@
         <v>1457284227000</v>
       </c>
     </row>
-    <row r="291" spans="1:14">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>667</v>
       </c>
@@ -14094,7 +14175,7 @@
         <v>1457284527000</v>
       </c>
     </row>
-    <row r="292" spans="1:14" hidden="1">
+    <row r="292" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>659</v>
       </c>
@@ -14132,7 +14213,7 @@
         <v>1457284827000</v>
       </c>
     </row>
-    <row r="293" spans="1:14">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>667</v>
       </c>
@@ -14170,7 +14251,7 @@
         <v>1457285127000</v>
       </c>
     </row>
-    <row r="294" spans="1:14" hidden="1">
+    <row r="294" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>650</v>
       </c>
@@ -14208,7 +14289,7 @@
         <v>1457285427000</v>
       </c>
     </row>
-    <row r="295" spans="1:14">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>681</v>
       </c>
@@ -14246,7 +14327,7 @@
         <v>1457285727000</v>
       </c>
     </row>
-    <row r="296" spans="1:14" hidden="1">
+    <row r="296" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>654</v>
       </c>
@@ -14284,7 +14365,7 @@
         <v>1457286027000</v>
       </c>
     </row>
-    <row r="297" spans="1:14">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>672</v>
       </c>
@@ -14322,7 +14403,7 @@
         <v>1457286327000</v>
       </c>
     </row>
-    <row r="298" spans="1:14" hidden="1">
+    <row r="298" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>656</v>
       </c>
@@ -14360,7 +14441,7 @@
         <v>1457286627000</v>
       </c>
     </row>
-    <row r="299" spans="1:14">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>671</v>
       </c>
@@ -14398,7 +14479,7 @@
         <v>1457286927000</v>
       </c>
     </row>
-    <row r="300" spans="1:14" hidden="1">
+    <row r="300" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>656</v>
       </c>
@@ -14436,7 +14517,7 @@
         <v>1457287227000</v>
       </c>
     </row>
-    <row r="301" spans="1:14">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>667</v>
       </c>
@@ -14474,7 +14555,7 @@
         <v>1457287527000</v>
       </c>
     </row>
-    <row r="302" spans="1:14" hidden="1">
+    <row r="302" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>655</v>
       </c>
@@ -14512,7 +14593,7 @@
         <v>1457287827000</v>
       </c>
     </row>
-    <row r="303" spans="1:14">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>657</v>
       </c>
@@ -14550,7 +14631,7 @@
         <v>1457288127000</v>
       </c>
     </row>
-    <row r="304" spans="1:14" hidden="1">
+    <row r="304" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>660</v>
       </c>
@@ -14588,7 +14669,7 @@
         <v>1457288427000</v>
       </c>
     </row>
-    <row r="305" spans="1:14">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>662</v>
       </c>
@@ -14626,7 +14707,7 @@
         <v>1457288727000</v>
       </c>
     </row>
-    <row r="306" spans="1:14" hidden="1">
+    <row r="306" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>661</v>
       </c>
@@ -14664,7 +14745,7 @@
         <v>1457289027000</v>
       </c>
     </row>
-    <row r="307" spans="1:14">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>659</v>
       </c>
@@ -14702,7 +14783,7 @@
         <v>1457289327000</v>
       </c>
     </row>
-    <row r="308" spans="1:14" hidden="1">
+    <row r="308" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>660</v>
       </c>
@@ -14740,7 +14821,7 @@
         <v>1457289627000</v>
       </c>
     </row>
-    <row r="309" spans="1:14">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>659</v>
       </c>
@@ -14778,7 +14859,7 @@
         <v>1457289927000</v>
       </c>
     </row>
-    <row r="310" spans="1:14" hidden="1">
+    <row r="310" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>660</v>
       </c>
@@ -14816,7 +14897,7 @@
         <v>1457290227000</v>
       </c>
     </row>
-    <row r="311" spans="1:14">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>669</v>
       </c>
@@ -14854,7 +14935,7 @@
         <v>1457290527000</v>
       </c>
     </row>
-    <row r="312" spans="1:14" hidden="1">
+    <row r="312" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>660</v>
       </c>
@@ -14892,7 +14973,7 @@
         <v>1457290827000</v>
       </c>
     </row>
-    <row r="313" spans="1:14">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>663</v>
       </c>
@@ -14930,7 +15011,7 @@
         <v>1457291127000</v>
       </c>
     </row>
-    <row r="314" spans="1:14" hidden="1">
+    <row r="314" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>655</v>
       </c>
@@ -14968,7 +15049,7 @@
         <v>1457291427000</v>
       </c>
     </row>
-    <row r="315" spans="1:14">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>661</v>
       </c>
@@ -15006,7 +15087,7 @@
         <v>1457291727000</v>
       </c>
     </row>
-    <row r="316" spans="1:14" hidden="1">
+    <row r="316" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>651</v>
       </c>
@@ -15044,7 +15125,7 @@
         <v>1457292027000</v>
       </c>
     </row>
-    <row r="317" spans="1:14">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>662</v>
       </c>
@@ -15082,7 +15163,7 @@
         <v>1457292327000</v>
       </c>
     </row>
-    <row r="318" spans="1:14" hidden="1">
+    <row r="318" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>650</v>
       </c>
@@ -15120,7 +15201,7 @@
         <v>1457292627000</v>
       </c>
     </row>
-    <row r="319" spans="1:14">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>662</v>
       </c>
@@ -15158,7 +15239,7 @@
         <v>1457292927000</v>
       </c>
     </row>
-    <row r="320" spans="1:14" hidden="1">
+    <row r="320" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>654</v>
       </c>
@@ -15196,7 +15277,7 @@
         <v>1457293227000</v>
       </c>
     </row>
-    <row r="321" spans="1:14">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>659</v>
       </c>
@@ -15234,7 +15315,7 @@
         <v>1457293527000</v>
       </c>
     </row>
-    <row r="322" spans="1:14" hidden="1">
+    <row r="322" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>655</v>
       </c>
@@ -15272,7 +15353,7 @@
         <v>1457293827000</v>
       </c>
     </row>
-    <row r="323" spans="1:14">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>670</v>
       </c>
@@ -15310,7 +15391,7 @@
         <v>1457294127000</v>
       </c>
     </row>
-    <row r="324" spans="1:14" hidden="1">
+    <row r="324" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>655</v>
       </c>
@@ -15348,7 +15429,7 @@
         <v>1457294427000</v>
       </c>
     </row>
-    <row r="325" spans="1:14">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>665</v>
       </c>
@@ -15386,7 +15467,7 @@
         <v>1457294727000</v>
       </c>
     </row>
-    <row r="326" spans="1:14" hidden="1">
+    <row r="326" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>656</v>
       </c>
@@ -15424,7 +15505,7 @@
         <v>1457295027000</v>
       </c>
     </row>
-    <row r="327" spans="1:14">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>665</v>
       </c>
@@ -15462,7 +15543,7 @@
         <v>1457295327000</v>
       </c>
     </row>
-    <row r="328" spans="1:14" hidden="1">
+    <row r="328" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>662</v>
       </c>
@@ -15500,7 +15581,7 @@
         <v>1457295627000</v>
       </c>
     </row>
-    <row r="329" spans="1:14">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>665</v>
       </c>
@@ -15538,7 +15619,7 @@
         <v>1457295927000</v>
       </c>
     </row>
-    <row r="330" spans="1:14" hidden="1">
+    <row r="330" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>669</v>
       </c>
@@ -15576,7 +15657,7 @@
         <v>1457296227000</v>
       </c>
     </row>
-    <row r="331" spans="1:14">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>663</v>
       </c>
@@ -15614,7 +15695,7 @@
         <v>1457296527000</v>
       </c>
     </row>
-    <row r="332" spans="1:14" hidden="1">
+    <row r="332" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>669</v>
       </c>
@@ -15652,7 +15733,7 @@
         <v>1457296827000</v>
       </c>
     </row>
-    <row r="333" spans="1:14">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>660</v>
       </c>
@@ -15690,7 +15771,7 @@
         <v>1457297127000</v>
       </c>
     </row>
-    <row r="334" spans="1:14" hidden="1">
+    <row r="334" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>669</v>
       </c>
@@ -15728,7 +15809,7 @@
         <v>1457297427000</v>
       </c>
     </row>
-    <row r="335" spans="1:14">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>707</v>
       </c>
@@ -15766,7 +15847,7 @@
         <v>1457297727000</v>
       </c>
     </row>
-    <row r="336" spans="1:14" hidden="1">
+    <row r="336" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>668</v>
       </c>
@@ -15804,7 +15885,7 @@
         <v>1457298027000</v>
       </c>
     </row>
-    <row r="337" spans="1:14">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>707</v>
       </c>
@@ -15842,7 +15923,7 @@
         <v>1457298327000</v>
       </c>
     </row>
-    <row r="338" spans="1:14" hidden="1">
+    <row r="338" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>659</v>
       </c>
@@ -15880,7 +15961,7 @@
         <v>1457298627000</v>
       </c>
     </row>
-    <row r="339" spans="1:14">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>679</v>
       </c>
@@ -15918,7 +15999,7 @@
         <v>1457300127000</v>
       </c>
     </row>
-    <row r="340" spans="1:14" hidden="1">
+    <row r="340" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>671</v>
       </c>
@@ -15956,7 +16037,7 @@
         <v>1457300427000</v>
       </c>
     </row>
-    <row r="341" spans="1:14">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>670</v>
       </c>
@@ -15994,7 +16075,7 @@
         <v>1457300727000</v>
       </c>
     </row>
-    <row r="342" spans="1:14" hidden="1">
+    <row r="342" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>670</v>
       </c>
@@ -16032,7 +16113,7 @@
         <v>1457301027000</v>
       </c>
     </row>
-    <row r="343" spans="1:14">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>672</v>
       </c>
@@ -16070,7 +16151,7 @@
         <v>1457301327000</v>
       </c>
     </row>
-    <row r="344" spans="1:14" hidden="1">
+    <row r="344" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>667</v>
       </c>
@@ -16108,7 +16189,7 @@
         <v>1457301627000</v>
       </c>
     </row>
-    <row r="345" spans="1:14">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>710</v>
       </c>
@@ -16146,7 +16227,7 @@
         <v>1457301628000</v>
       </c>
     </row>
-    <row r="346" spans="1:14" hidden="1">
+    <row r="346" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>667</v>
       </c>
@@ -16184,7 +16265,7 @@
         <v>1457323227000</v>
       </c>
     </row>
-    <row r="347" spans="1:14">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>689</v>
       </c>
@@ -16222,7 +16303,7 @@
         <v>1457323527000</v>
       </c>
     </row>
-    <row r="348" spans="1:14" hidden="1">
+    <row r="348" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>667</v>
       </c>
@@ -16260,7 +16341,7 @@
         <v>1457323827000</v>
       </c>
     </row>
-    <row r="349" spans="1:14">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>673</v>
       </c>
@@ -16298,7 +16379,7 @@
         <v>1457324127000</v>
       </c>
     </row>
-    <row r="350" spans="1:14" hidden="1">
+    <row r="350" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>668</v>
       </c>
@@ -16336,7 +16417,7 @@
         <v>1457324427000</v>
       </c>
     </row>
-    <row r="351" spans="1:14">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>669</v>
       </c>
@@ -16374,7 +16455,7 @@
         <v>1457324727000</v>
       </c>
     </row>
-    <row r="352" spans="1:14" hidden="1">
+    <row r="352" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>664</v>
       </c>
@@ -16412,7 +16493,7 @@
         <v>1457325027000</v>
       </c>
     </row>
-    <row r="353" spans="1:14">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>666</v>
       </c>
@@ -16450,7 +16531,7 @@
         <v>1457325327000</v>
       </c>
     </row>
-    <row r="354" spans="1:14" hidden="1">
+    <row r="354" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>664</v>
       </c>
@@ -16488,7 +16569,7 @@
         <v>1457325627000</v>
       </c>
     </row>
-    <row r="355" spans="1:14">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>664</v>
       </c>
@@ -16526,7 +16607,7 @@
         <v>1457325927000</v>
       </c>
     </row>
-    <row r="356" spans="1:14" hidden="1">
+    <row r="356" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>666</v>
       </c>
@@ -16564,7 +16645,7 @@
         <v>1457326227000</v>
       </c>
     </row>
-    <row r="357" spans="1:14">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>676</v>
       </c>
@@ -16602,7 +16683,7 @@
         <v>1457326527000</v>
       </c>
     </row>
-    <row r="358" spans="1:14" hidden="1">
+    <row r="358" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>665</v>
       </c>
@@ -16640,7 +16721,7 @@
         <v>1457326827000</v>
       </c>
     </row>
-    <row r="359" spans="1:14">
+    <row r="359" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>728</v>
       </c>
@@ -16678,7 +16759,7 @@
         <v>1457327127000</v>
       </c>
     </row>
-    <row r="360" spans="1:14" hidden="1">
+    <row r="360" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>664</v>
       </c>
@@ -16716,7 +16797,7 @@
         <v>1457327427000</v>
       </c>
     </row>
-    <row r="361" spans="1:14">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>711</v>
       </c>
@@ -16754,7 +16835,7 @@
         <v>1457327727000</v>
       </c>
     </row>
-    <row r="362" spans="1:14" hidden="1">
+    <row r="362" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>666</v>
       </c>
@@ -16792,7 +16873,7 @@
         <v>1457328027000</v>
       </c>
     </row>
-    <row r="363" spans="1:14">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>681</v>
       </c>
@@ -16830,7 +16911,7 @@
         <v>1457328327000</v>
       </c>
     </row>
-    <row r="364" spans="1:14" hidden="1">
+    <row r="364" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>671</v>
       </c>
@@ -16868,7 +16949,7 @@
         <v>1457328627000</v>
       </c>
     </row>
-    <row r="365" spans="1:14">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>672</v>
       </c>
@@ -16906,7 +16987,7 @@
         <v>1457328927000</v>
       </c>
     </row>
-    <row r="366" spans="1:14" hidden="1">
+    <row r="366" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>673</v>
       </c>
@@ -16944,7 +17025,7 @@
         <v>1457329227000</v>
       </c>
     </row>
-    <row r="367" spans="1:14">
+    <row r="367" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>666</v>
       </c>
@@ -16982,7 +17063,7 @@
         <v>1457329527000</v>
       </c>
     </row>
-    <row r="368" spans="1:14" hidden="1">
+    <row r="368" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>674</v>
       </c>
@@ -17020,7 +17101,7 @@
         <v>1457329827000</v>
       </c>
     </row>
-    <row r="369" spans="1:14">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>664</v>
       </c>
@@ -17058,7 +17139,7 @@
         <v>1457330127000</v>
       </c>
     </row>
-    <row r="370" spans="1:14" hidden="1">
+    <row r="370" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>678</v>
       </c>
@@ -17096,7 +17177,7 @@
         <v>1457330427000</v>
       </c>
     </row>
-    <row r="371" spans="1:14">
+    <row r="371" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>673</v>
       </c>
@@ -17134,7 +17215,7 @@
         <v>1457330727000</v>
       </c>
     </row>
-    <row r="372" spans="1:14" hidden="1">
+    <row r="372" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>678</v>
       </c>
@@ -17172,7 +17253,7 @@
         <v>1457331027000</v>
       </c>
     </row>
-    <row r="373" spans="1:14">
+    <row r="373" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>679</v>
       </c>
@@ -17210,7 +17291,7 @@
         <v>1457331327000</v>
       </c>
     </row>
-    <row r="374" spans="1:14" hidden="1">
+    <row r="374" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>695</v>
       </c>
@@ -17248,7 +17329,7 @@
         <v>1457331627000</v>
       </c>
     </row>
-    <row r="375" spans="1:14">
+    <row r="375" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>670</v>
       </c>
@@ -17286,7 +17367,7 @@
         <v>1457331927000</v>
       </c>
     </row>
-    <row r="376" spans="1:14" hidden="1">
+    <row r="376" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>703</v>
       </c>
@@ -17324,7 +17405,7 @@
         <v>1457332227000</v>
       </c>
     </row>
-    <row r="377" spans="1:14">
+    <row r="377" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>666</v>
       </c>
@@ -17362,7 +17443,7 @@
         <v>1457332527000</v>
       </c>
     </row>
-    <row r="378" spans="1:14" hidden="1">
+    <row r="378" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>701</v>
       </c>
@@ -17400,7 +17481,7 @@
         <v>1457332827000</v>
       </c>
     </row>
-    <row r="379" spans="1:14">
+    <row r="379" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>666</v>
       </c>
@@ -17438,7 +17519,7 @@
         <v>1457333127000</v>
       </c>
     </row>
-    <row r="380" spans="1:14" hidden="1">
+    <row r="380" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>673</v>
       </c>
@@ -17476,7 +17557,7 @@
         <v>1457333427000</v>
       </c>
     </row>
-    <row r="381" spans="1:14">
+    <row r="381" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>663</v>
       </c>
@@ -17514,7 +17595,7 @@
         <v>1457333727000</v>
       </c>
     </row>
-    <row r="382" spans="1:14" hidden="1">
+    <row r="382" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>673</v>
       </c>
@@ -17552,7 +17633,7 @@
         <v>1457334027000</v>
       </c>
     </row>
-    <row r="383" spans="1:14">
+    <row r="383" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>655</v>
       </c>
@@ -17590,7 +17671,7 @@
         <v>1457334327000</v>
       </c>
     </row>
-    <row r="384" spans="1:14" hidden="1">
+    <row r="384" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>670</v>
       </c>
@@ -17628,7 +17709,7 @@
         <v>1457334627000</v>
       </c>
     </row>
-    <row r="385" spans="1:14">
+    <row r="385" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>656</v>
       </c>
@@ -17666,7 +17747,7 @@
         <v>1457334927000</v>
       </c>
     </row>
-    <row r="386" spans="1:14" hidden="1">
+    <row r="386" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>709</v>
       </c>
@@ -17704,7 +17785,7 @@
         <v>1457335227000</v>
       </c>
     </row>
-    <row r="387" spans="1:14">
+    <row r="387" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>662</v>
       </c>
@@ -17742,7 +17823,7 @@
         <v>1457335527000</v>
       </c>
     </row>
-    <row r="388" spans="1:14" hidden="1">
+    <row r="388" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>710</v>
       </c>
@@ -17780,7 +17861,7 @@
         <v>1457335827000</v>
       </c>
     </row>
-    <row r="389" spans="1:14">
+    <row r="389" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>666</v>
       </c>
@@ -17818,7 +17899,7 @@
         <v>1457336127000</v>
       </c>
     </row>
-    <row r="390" spans="1:14" hidden="1">
+    <row r="390" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>711</v>
       </c>
@@ -17856,7 +17937,7 @@
         <v>1457336427000</v>
       </c>
     </row>
-    <row r="391" spans="1:14">
+    <row r="391" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>694</v>
       </c>
@@ -17894,7 +17975,7 @@
         <v>1457336727000</v>
       </c>
     </row>
-    <row r="392" spans="1:14" hidden="1">
+    <row r="392" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>714</v>
       </c>
@@ -17932,7 +18013,7 @@
         <v>1457337027000</v>
       </c>
     </row>
-    <row r="393" spans="1:14">
+    <row r="393" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>667</v>
       </c>
@@ -17970,7 +18051,7 @@
         <v>1457337327000</v>
       </c>
     </row>
-    <row r="394" spans="1:14" hidden="1">
+    <row r="394" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>711</v>
       </c>
@@ -18008,7 +18089,7 @@
         <v>1457337627000</v>
       </c>
     </row>
-    <row r="395" spans="1:14">
+    <row r="395" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>702</v>
       </c>
@@ -18046,7 +18127,7 @@
         <v>1457337927000</v>
       </c>
     </row>
-    <row r="396" spans="1:14" hidden="1">
+    <row r="396" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>713</v>
       </c>
@@ -18084,7 +18165,7 @@
         <v>1457338227000</v>
       </c>
     </row>
-    <row r="397" spans="1:14">
+    <row r="397" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>680</v>
       </c>
@@ -18122,7 +18203,7 @@
         <v>1457338527000</v>
       </c>
     </row>
-    <row r="398" spans="1:14" hidden="1">
+    <row r="398" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>724</v>
       </c>
@@ -18160,7 +18241,7 @@
         <v>1457338827000</v>
       </c>
     </row>
-    <row r="399" spans="1:14">
+    <row r="399" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>706</v>
       </c>
@@ -18198,7 +18279,7 @@
         <v>1457339127000</v>
       </c>
     </row>
-    <row r="400" spans="1:14" hidden="1">
+    <row r="400" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>724</v>
       </c>
@@ -18236,7 +18317,7 @@
         <v>1457339427000</v>
       </c>
     </row>
-    <row r="401" spans="1:14">
+    <row r="401" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>683</v>
       </c>
@@ -18274,7 +18355,7 @@
         <v>1457339727000</v>
       </c>
     </row>
-    <row r="402" spans="1:14" hidden="1">
+    <row r="402" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>723</v>
       </c>
@@ -18312,7 +18393,7 @@
         <v>1457340027000</v>
       </c>
     </row>
-    <row r="403" spans="1:14">
+    <row r="403" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>681</v>
       </c>
@@ -18350,7 +18431,7 @@
         <v>1457340327000</v>
       </c>
     </row>
-    <row r="404" spans="1:14" hidden="1">
+    <row r="404" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>734</v>
       </c>
@@ -18388,7 +18469,7 @@
         <v>1457340627765</v>
       </c>
     </row>
-    <row r="405" spans="1:14">
+    <row r="405" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>666</v>
       </c>
@@ -18426,7 +18507,7 @@
         <v>1457340927746</v>
       </c>
     </row>
-    <row r="406" spans="1:14" hidden="1">
+    <row r="406" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>737</v>
       </c>
@@ -18440,7 +18521,7 @@
         <v>1457258427000</v>
       </c>
     </row>
-    <row r="407" spans="1:14">
+    <row r="407" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>692</v>
       </c>
@@ -18454,7 +18535,7 @@
         <v>1457258427000</v>
       </c>
     </row>
-    <row r="408" spans="1:14" hidden="1">
+    <row r="408" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>746</v>
       </c>
@@ -18468,7 +18549,7 @@
         <v>1457258727000</v>
       </c>
     </row>
-    <row r="409" spans="1:14">
+    <row r="409" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>679</v>
       </c>
@@ -18482,7 +18563,7 @@
         <v>1457258727000</v>
       </c>
     </row>
-    <row r="410" spans="1:14" hidden="1">
+    <row r="410" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>739</v>
       </c>
@@ -18496,7 +18577,7 @@
         <v>1457259027000</v>
       </c>
     </row>
-    <row r="411" spans="1:14">
+    <row r="411" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>682</v>
       </c>
@@ -18510,7 +18591,7 @@
         <v>1457259027000</v>
       </c>
     </row>
-    <row r="412" spans="1:14" hidden="1">
+    <row r="412" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>732</v>
       </c>
@@ -18524,7 +18605,7 @@
         <v>1457259327000</v>
       </c>
     </row>
-    <row r="413" spans="1:14">
+    <row r="413" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>716</v>
       </c>
@@ -18538,7 +18619,7 @@
         <v>1457259327000</v>
       </c>
     </row>
-    <row r="414" spans="1:14" hidden="1">
+    <row r="414" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>747</v>
       </c>
@@ -18552,7 +18633,7 @@
         <v>1457259627000</v>
       </c>
     </row>
-    <row r="415" spans="1:14">
+    <row r="415" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>689</v>
       </c>
@@ -18566,7 +18647,7 @@
         <v>1457259627000</v>
       </c>
     </row>
-    <row r="416" spans="1:14" hidden="1">
+    <row r="416" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>745</v>
       </c>
@@ -18580,7 +18661,7 @@
         <v>1457259927000</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>687</v>
       </c>
@@ -18594,7 +18675,7 @@
         <v>1457259927000</v>
       </c>
     </row>
-    <row r="418" spans="1:4" hidden="1">
+    <row r="418" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>741</v>
       </c>
@@ -18608,7 +18689,7 @@
         <v>1457260227000</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>701</v>
       </c>
@@ -18622,7 +18703,7 @@
         <v>1457260227000</v>
       </c>
     </row>
-    <row r="420" spans="1:4" hidden="1">
+    <row r="420" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>723</v>
       </c>
@@ -18636,7 +18717,7 @@
         <v>1457260527000</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>698</v>
       </c>
@@ -18650,7 +18731,7 @@
         <v>1457260527000</v>
       </c>
     </row>
-    <row r="422" spans="1:4" hidden="1">
+    <row r="422" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>721</v>
       </c>
@@ -18664,7 +18745,7 @@
         <v>1457260827000</v>
       </c>
     </row>
-    <row r="423" spans="1:4">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>695</v>
       </c>
@@ -18678,7 +18759,7 @@
         <v>1457260827000</v>
       </c>
     </row>
-    <row r="424" spans="1:4" hidden="1">
+    <row r="424" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>733</v>
       </c>
@@ -18692,7 +18773,7 @@
         <v>1457261127000</v>
       </c>
     </row>
-    <row r="425" spans="1:4">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>684</v>
       </c>
@@ -18706,7 +18787,7 @@
         <v>1457261127000</v>
       </c>
     </row>
-    <row r="426" spans="1:4" hidden="1">
+    <row r="426" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>728</v>
       </c>
@@ -18720,7 +18801,7 @@
         <v>1457261427000</v>
       </c>
     </row>
-    <row r="427" spans="1:4">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>708</v>
       </c>
@@ -18734,7 +18815,7 @@
         <v>1457261427000</v>
       </c>
     </row>
-    <row r="428" spans="1:4" hidden="1">
+    <row r="428" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>682</v>
       </c>
@@ -18748,7 +18829,7 @@
         <v>1457261727000</v>
       </c>
     </row>
-    <row r="429" spans="1:4">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>709</v>
       </c>
@@ -18762,7 +18843,7 @@
         <v>1457261727000</v>
       </c>
     </row>
-    <row r="430" spans="1:4" hidden="1">
+    <row r="430" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>682</v>
       </c>
@@ -18776,7 +18857,7 @@
         <v>1457262027000</v>
       </c>
     </row>
-    <row r="431" spans="1:4">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>703</v>
       </c>
@@ -18790,7 +18871,7 @@
         <v>1457262027000</v>
       </c>
     </row>
-    <row r="432" spans="1:4" hidden="1">
+    <row r="432" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>690</v>
       </c>
@@ -18804,7 +18885,7 @@
         <v>1457262327000</v>
       </c>
     </row>
-    <row r="433" spans="1:4">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>699</v>
       </c>
@@ -18818,7 +18899,7 @@
         <v>1457262327000</v>
       </c>
     </row>
-    <row r="434" spans="1:4" hidden="1">
+    <row r="434" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>692</v>
       </c>
@@ -18832,7 +18913,7 @@
         <v>1457262627000</v>
       </c>
     </row>
-    <row r="435" spans="1:4">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>705</v>
       </c>
@@ -18846,7 +18927,7 @@
         <v>1457262627000</v>
       </c>
     </row>
-    <row r="436" spans="1:4" hidden="1">
+    <row r="436" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>688</v>
       </c>
@@ -18860,7 +18941,7 @@
         <v>1457262927000</v>
       </c>
     </row>
-    <row r="437" spans="1:4">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>687</v>
       </c>
@@ -18874,7 +18955,7 @@
         <v>1457262927000</v>
       </c>
     </row>
-    <row r="438" spans="1:4" hidden="1">
+    <row r="438" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>687</v>
       </c>
@@ -18888,7 +18969,7 @@
         <v>1457263227000</v>
       </c>
     </row>
-    <row r="439" spans="1:4">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>693</v>
       </c>
@@ -18902,7 +18983,7 @@
         <v>1457263227000</v>
       </c>
     </row>
-    <row r="440" spans="1:4" hidden="1">
+    <row r="440" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>685</v>
       </c>
@@ -18916,7 +18997,7 @@
         <v>1457263527000</v>
       </c>
     </row>
-    <row r="441" spans="1:4">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>696</v>
       </c>
@@ -18930,7 +19011,7 @@
         <v>1457263527000</v>
       </c>
     </row>
-    <row r="442" spans="1:4" hidden="1">
+    <row r="442" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>683</v>
       </c>
@@ -18944,7 +19025,7 @@
         <v>1457263827000</v>
       </c>
     </row>
-    <row r="443" spans="1:4">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>693</v>
       </c>
@@ -18958,7 +19039,7 @@
         <v>1457263827000</v>
       </c>
     </row>
-    <row r="444" spans="1:4" hidden="1">
+    <row r="444" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>685</v>
       </c>
@@ -18972,7 +19053,7 @@
         <v>1457264127000</v>
       </c>
     </row>
-    <row r="445" spans="1:4">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>669</v>
       </c>
@@ -18986,7 +19067,7 @@
         <v>1457264127000</v>
       </c>
     </row>
-    <row r="446" spans="1:4" hidden="1">
+    <row r="446" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>730</v>
       </c>
@@ -19000,7 +19081,7 @@
         <v>1457264427000</v>
       </c>
     </row>
-    <row r="447" spans="1:4">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>675</v>
       </c>
@@ -19014,7 +19095,7 @@
         <v>1457264427000</v>
       </c>
     </row>
-    <row r="448" spans="1:4" hidden="1">
+    <row r="448" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>724</v>
       </c>
@@ -19028,7 +19109,7 @@
         <v>1457264727000</v>
       </c>
     </row>
-    <row r="449" spans="1:4">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>671</v>
       </c>
@@ -19042,7 +19123,7 @@
         <v>1457264727000</v>
       </c>
     </row>
-    <row r="450" spans="1:4" hidden="1">
+    <row r="450" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>688</v>
       </c>
@@ -19056,7 +19137,7 @@
         <v>1457265027000</v>
       </c>
     </row>
-    <row r="451" spans="1:4">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>676</v>
       </c>
@@ -19070,7 +19151,7 @@
         <v>1457265027000</v>
       </c>
     </row>
-    <row r="452" spans="1:4" hidden="1">
+    <row r="452" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>691</v>
       </c>
@@ -19084,7 +19165,7 @@
         <v>1457265327000</v>
       </c>
     </row>
-    <row r="453" spans="1:4">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>680</v>
       </c>
@@ -19098,7 +19179,7 @@
         <v>1457265327000</v>
       </c>
     </row>
-    <row r="454" spans="1:4" hidden="1">
+    <row r="454" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>692</v>
       </c>
@@ -19112,7 +19193,7 @@
         <v>1457265627000</v>
       </c>
     </row>
-    <row r="455" spans="1:4">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>663</v>
       </c>
@@ -19126,7 +19207,7 @@
         <v>1457265627000</v>
       </c>
     </row>
-    <row r="456" spans="1:4" hidden="1">
+    <row r="456" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>701</v>
       </c>
@@ -19140,7 +19221,7 @@
         <v>1457265927000</v>
       </c>
     </row>
-    <row r="457" spans="1:4">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>675</v>
       </c>
@@ -19154,7 +19235,7 @@
         <v>1457265927000</v>
       </c>
     </row>
-    <row r="458" spans="1:4" hidden="1">
+    <row r="458" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>702</v>
       </c>
@@ -19168,7 +19249,7 @@
         <v>1457266227000</v>
       </c>
     </row>
-    <row r="459" spans="1:4">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>728</v>
       </c>
@@ -19182,7 +19263,7 @@
         <v>1457266227000</v>
       </c>
     </row>
-    <row r="460" spans="1:4" hidden="1">
+    <row r="460" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>702</v>
       </c>
@@ -19196,7 +19277,7 @@
         <v>1457266527000</v>
       </c>
     </row>
-    <row r="461" spans="1:4">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>679</v>
       </c>
@@ -19210,7 +19291,7 @@
         <v>1457266527000</v>
       </c>
     </row>
-    <row r="462" spans="1:4" hidden="1">
+    <row r="462" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>701</v>
       </c>
@@ -19224,7 +19305,7 @@
         <v>1457266827000</v>
       </c>
     </row>
-    <row r="463" spans="1:4">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>672</v>
       </c>
@@ -19238,7 +19319,7 @@
         <v>1457266827000</v>
       </c>
     </row>
-    <row r="464" spans="1:4" hidden="1">
+    <row r="464" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>700</v>
       </c>
@@ -19252,7 +19333,7 @@
         <v>1457267127000</v>
       </c>
     </row>
-    <row r="465" spans="1:4">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>681</v>
       </c>
@@ -19266,7 +19347,7 @@
         <v>1457267127000</v>
       </c>
     </row>
-    <row r="466" spans="1:4" hidden="1">
+    <row r="466" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>702</v>
       </c>
@@ -19280,7 +19361,7 @@
         <v>1457267427000</v>
       </c>
     </row>
-    <row r="467" spans="1:4">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>709</v>
       </c>
@@ -19294,7 +19375,7 @@
         <v>1457267427000</v>
       </c>
     </row>
-    <row r="468" spans="1:4" hidden="1">
+    <row r="468" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>704</v>
       </c>
@@ -19308,7 +19389,7 @@
         <v>1457267727000</v>
       </c>
     </row>
-    <row r="469" spans="1:4">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>667</v>
       </c>
@@ -19322,7 +19403,7 @@
         <v>1457267727000</v>
       </c>
     </row>
-    <row r="470" spans="1:4" hidden="1">
+    <row r="470" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>704</v>
       </c>
@@ -19336,7 +19417,7 @@
         <v>1457268027000</v>
       </c>
     </row>
-    <row r="471" spans="1:4">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>663</v>
       </c>
@@ -19350,7 +19431,7 @@
         <v>1457268027000</v>
       </c>
     </row>
-    <row r="472" spans="1:4" hidden="1">
+    <row r="472" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>703</v>
       </c>
@@ -19364,7 +19445,7 @@
         <v>1457268327000</v>
       </c>
     </row>
-    <row r="473" spans="1:4">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>679</v>
       </c>
@@ -19378,7 +19459,7 @@
         <v>1457268327000</v>
       </c>
     </row>
-    <row r="474" spans="1:4" hidden="1">
+    <row r="474" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>694</v>
       </c>
@@ -19392,7 +19473,7 @@
         <v>1457268627000</v>
       </c>
     </row>
-    <row r="475" spans="1:4">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>691</v>
       </c>
@@ -19406,7 +19487,7 @@
         <v>1457268627000</v>
       </c>
     </row>
-    <row r="476" spans="1:4" hidden="1">
+    <row r="476" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>693</v>
       </c>
@@ -19420,7 +19501,7 @@
         <v>1457268927000</v>
       </c>
     </row>
-    <row r="477" spans="1:4">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>694</v>
       </c>
@@ -19434,7 +19515,7 @@
         <v>1457268927000</v>
       </c>
     </row>
-    <row r="478" spans="1:4" hidden="1">
+    <row r="478" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>694</v>
       </c>
@@ -19448,7 +19529,7 @@
         <v>1457269227000</v>
       </c>
     </row>
-    <row r="479" spans="1:4">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>682</v>
       </c>
@@ -19462,7 +19543,7 @@
         <v>1457269227000</v>
       </c>
     </row>
-    <row r="480" spans="1:4" hidden="1">
+    <row r="480" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>697</v>
       </c>
@@ -19476,7 +19557,7 @@
         <v>1457269527000</v>
       </c>
     </row>
-    <row r="481" spans="1:4">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>677</v>
       </c>
@@ -19490,7 +19571,7 @@
         <v>1457269527000</v>
       </c>
     </row>
-    <row r="482" spans="1:4" hidden="1">
+    <row r="482" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>696</v>
       </c>
@@ -19504,7 +19585,7 @@
         <v>1457269827000</v>
       </c>
     </row>
-    <row r="483" spans="1:4">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>661</v>
       </c>
@@ -19518,7 +19599,7 @@
         <v>1457269827000</v>
       </c>
     </row>
-    <row r="484" spans="1:4" hidden="1">
+    <row r="484" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>698</v>
       </c>
@@ -19532,7 +19613,7 @@
         <v>1457270127000</v>
       </c>
     </row>
-    <row r="485" spans="1:4">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>663</v>
       </c>
@@ -19546,7 +19627,7 @@
         <v>1457270127000</v>
       </c>
     </row>
-    <row r="486" spans="1:4" hidden="1">
+    <row r="486" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>699</v>
       </c>
@@ -19560,7 +19641,7 @@
         <v>1457270427000</v>
       </c>
     </row>
-    <row r="487" spans="1:4">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>678</v>
       </c>
@@ -19574,7 +19655,7 @@
         <v>1457270427000</v>
       </c>
     </row>
-    <row r="488" spans="1:4" hidden="1">
+    <row r="488" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>703</v>
       </c>
@@ -19588,7 +19669,7 @@
         <v>1457270727000</v>
       </c>
     </row>
-    <row r="489" spans="1:4">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>686</v>
       </c>
@@ -19602,7 +19683,7 @@
         <v>1457270727000</v>
       </c>
     </row>
-    <row r="490" spans="1:4" hidden="1">
+    <row r="490" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>706</v>
       </c>
@@ -19616,7 +19697,7 @@
         <v>1457271027000</v>
       </c>
     </row>
-    <row r="491" spans="1:4">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>694</v>
       </c>
@@ -19630,7 +19711,7 @@
         <v>1457271027000</v>
       </c>
     </row>
-    <row r="492" spans="1:4" hidden="1">
+    <row r="492" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>707</v>
       </c>
@@ -19644,7 +19725,7 @@
         <v>1457271327000</v>
       </c>
     </row>
-    <row r="493" spans="1:4">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>694</v>
       </c>
@@ -19658,7 +19739,7 @@
         <v>1457271327000</v>
       </c>
     </row>
-    <row r="494" spans="1:4" hidden="1">
+    <row r="494" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>704</v>
       </c>
@@ -19672,7 +19753,7 @@
         <v>1457271627000</v>
       </c>
     </row>
-    <row r="495" spans="1:4">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>681</v>
       </c>
@@ -19686,7 +19767,7 @@
         <v>1457271627000</v>
       </c>
     </row>
-    <row r="496" spans="1:4" hidden="1">
+    <row r="496" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>694</v>
       </c>
@@ -19700,7 +19781,7 @@
         <v>1457271927000</v>
       </c>
     </row>
-    <row r="497" spans="1:4">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>672</v>
       </c>
@@ -19714,7 +19795,7 @@
         <v>1457271927000</v>
       </c>
     </row>
-    <row r="498" spans="1:4" hidden="1">
+    <row r="498" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>693</v>
       </c>
@@ -19728,7 +19809,7 @@
         <v>1457272227000</v>
       </c>
     </row>
-    <row r="499" spans="1:4">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>670</v>
       </c>
@@ -19742,7 +19823,7 @@
         <v>1457272227000</v>
       </c>
     </row>
-    <row r="500" spans="1:4" hidden="1">
+    <row r="500" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>696</v>
       </c>
@@ -19756,7 +19837,7 @@
         <v>1457272527000</v>
       </c>
     </row>
-    <row r="501" spans="1:4">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>680</v>
       </c>
@@ -19770,7 +19851,7 @@
         <v>1457272527000</v>
       </c>
     </row>
-    <row r="502" spans="1:4" hidden="1">
+    <row r="502" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>694</v>
       </c>
@@ -19784,7 +19865,7 @@
         <v>1457272827000</v>
       </c>
     </row>
-    <row r="503" spans="1:4">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>671</v>
       </c>
@@ -19798,7 +19879,7 @@
         <v>1457272827000</v>
       </c>
     </row>
-    <row r="504" spans="1:4" hidden="1">
+    <row r="504" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>689</v>
       </c>
@@ -19812,7 +19893,7 @@
         <v>1457273127000</v>
       </c>
     </row>
-    <row r="505" spans="1:4">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>671</v>
       </c>
@@ -19826,7 +19907,7 @@
         <v>1457273127000</v>
       </c>
     </row>
-    <row r="506" spans="1:4" hidden="1">
+    <row r="506" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>686</v>
       </c>
@@ -19840,7 +19921,7 @@
         <v>1457273427000</v>
       </c>
     </row>
-    <row r="507" spans="1:4">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>693</v>
       </c>
@@ -19854,7 +19935,7 @@
         <v>1457273427000</v>
       </c>
     </row>
-    <row r="508" spans="1:4" hidden="1">
+    <row r="508" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>685</v>
       </c>
@@ -19868,7 +19949,7 @@
         <v>1457273727000</v>
       </c>
     </row>
-    <row r="509" spans="1:4">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>695</v>
       </c>
@@ -19882,7 +19963,7 @@
         <v>1457273727000</v>
       </c>
     </row>
-    <row r="510" spans="1:4" hidden="1">
+    <row r="510" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>690</v>
       </c>
@@ -19896,7 +19977,7 @@
         <v>1457274027000</v>
       </c>
     </row>
-    <row r="511" spans="1:4">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>699</v>
       </c>
@@ -19910,7 +19991,7 @@
         <v>1457274027000</v>
       </c>
     </row>
-    <row r="512" spans="1:4" hidden="1">
+    <row r="512" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>690</v>
       </c>
@@ -19924,7 +20005,7 @@
         <v>1457274327000</v>
       </c>
     </row>
-    <row r="513" spans="1:4">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>714</v>
       </c>
@@ -19938,7 +20019,7 @@
         <v>1457274327000</v>
       </c>
     </row>
-    <row r="514" spans="1:4" hidden="1">
+    <row r="514" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>698</v>
       </c>
@@ -19952,7 +20033,7 @@
         <v>1457274627000</v>
       </c>
     </row>
-    <row r="515" spans="1:4">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>724</v>
       </c>
@@ -19966,7 +20047,7 @@
         <v>1457274627000</v>
       </c>
     </row>
-    <row r="516" spans="1:4" hidden="1">
+    <row r="516" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>696</v>
       </c>
@@ -19980,7 +20061,7 @@
         <v>1457274927000</v>
       </c>
     </row>
-    <row r="517" spans="1:4">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>712</v>
       </c>
@@ -19994,7 +20075,7 @@
         <v>1457274927000</v>
       </c>
     </row>
-    <row r="518" spans="1:4" hidden="1">
+    <row r="518" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>693</v>
       </c>
@@ -20008,7 +20089,7 @@
         <v>1457275227000</v>
       </c>
     </row>
-    <row r="519" spans="1:4">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>701</v>
       </c>
@@ -20022,7 +20103,7 @@
         <v>1457275227000</v>
       </c>
     </row>
-    <row r="520" spans="1:4" hidden="1">
+    <row r="520" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>691</v>
       </c>
@@ -20036,7 +20117,7 @@
         <v>1457275527000</v>
       </c>
     </row>
-    <row r="521" spans="1:4">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>698</v>
       </c>
@@ -20050,7 +20131,7 @@
         <v>1457275527000</v>
       </c>
     </row>
-    <row r="522" spans="1:4" hidden="1">
+    <row r="522" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>704</v>
       </c>
@@ -20064,7 +20145,7 @@
         <v>1457275827000</v>
       </c>
     </row>
-    <row r="523" spans="1:4">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>699</v>
       </c>
@@ -20078,7 +20159,7 @@
         <v>1457275827000</v>
       </c>
     </row>
-    <row r="524" spans="1:4" hidden="1">
+    <row r="524" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>699</v>
       </c>
@@ -20092,7 +20173,7 @@
         <v>1457276127000</v>
       </c>
     </row>
-    <row r="525" spans="1:4">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>734</v>
       </c>
@@ -20106,7 +20187,7 @@
         <v>1457276127000</v>
       </c>
     </row>
-    <row r="526" spans="1:4" hidden="1">
+    <row r="526" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>702</v>
       </c>
@@ -20120,7 +20201,7 @@
         <v>1457276427000</v>
       </c>
     </row>
-    <row r="527" spans="1:4">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>709</v>
       </c>
@@ -20134,7 +20215,7 @@
         <v>1457276427000</v>
       </c>
     </row>
-    <row r="528" spans="1:4" hidden="1">
+    <row r="528" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>694</v>
       </c>
@@ -20148,7 +20229,7 @@
         <v>1457276727000</v>
       </c>
     </row>
-    <row r="529" spans="1:4">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>726</v>
       </c>
@@ -20162,7 +20243,7 @@
         <v>1457276727000</v>
       </c>
     </row>
-    <row r="530" spans="1:4" hidden="1">
+    <row r="530" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>690</v>
       </c>
@@ -20176,7 +20257,7 @@
         <v>1457277027000</v>
       </c>
     </row>
-    <row r="531" spans="1:4">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>722</v>
       </c>
@@ -20190,7 +20271,7 @@
         <v>1457277027000</v>
       </c>
     </row>
-    <row r="532" spans="1:4" hidden="1">
+    <row r="532" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>684</v>
       </c>
@@ -20204,7 +20285,7 @@
         <v>1457277327000</v>
       </c>
     </row>
-    <row r="533" spans="1:4">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>704</v>
       </c>
@@ -20218,7 +20299,7 @@
         <v>1457277327000</v>
       </c>
     </row>
-    <row r="534" spans="1:4" hidden="1">
+    <row r="534" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>695</v>
       </c>
@@ -20232,7 +20313,7 @@
         <v>1457277627000</v>
       </c>
     </row>
-    <row r="535" spans="1:4">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>674</v>
       </c>
@@ -20246,7 +20327,7 @@
         <v>1457277627000</v>
       </c>
     </row>
-    <row r="536" spans="1:4" hidden="1">
+    <row r="536" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>694</v>
       </c>
@@ -20260,7 +20341,7 @@
         <v>1457277927000</v>
       </c>
     </row>
-    <row r="537" spans="1:4">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>681</v>
       </c>
@@ -20274,7 +20355,7 @@
         <v>1457277927000</v>
       </c>
     </row>
-    <row r="538" spans="1:4" hidden="1">
+    <row r="538" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>691</v>
       </c>
@@ -20288,7 +20369,7 @@
         <v>1457278227000</v>
       </c>
     </row>
-    <row r="539" spans="1:4">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>695</v>
       </c>
@@ -20302,7 +20383,7 @@
         <v>1457278227000</v>
       </c>
     </row>
-    <row r="540" spans="1:4" hidden="1">
+    <row r="540" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>692</v>
       </c>
@@ -20316,7 +20397,7 @@
         <v>1457278527000</v>
       </c>
     </row>
-    <row r="541" spans="1:4">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>669</v>
       </c>
@@ -20330,7 +20411,7 @@
         <v>1457278527000</v>
       </c>
     </row>
-    <row r="542" spans="1:4" hidden="1">
+    <row r="542" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>694</v>
       </c>
@@ -20344,7 +20425,7 @@
         <v>1457278827000</v>
       </c>
     </row>
-    <row r="543" spans="1:4">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>682</v>
       </c>
@@ -20358,7 +20439,7 @@
         <v>1457278827000</v>
       </c>
     </row>
-    <row r="544" spans="1:4" hidden="1">
+    <row r="544" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>697</v>
       </c>
@@ -20372,7 +20453,7 @@
         <v>1457279127000</v>
       </c>
     </row>
-    <row r="545" spans="1:4">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>671</v>
       </c>
@@ -20386,7 +20467,7 @@
         <v>1457279127000</v>
       </c>
     </row>
-    <row r="546" spans="1:4" hidden="1">
+    <row r="546" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>699</v>
       </c>
@@ -20400,7 +20481,7 @@
         <v>1457279427000</v>
       </c>
     </row>
-    <row r="547" spans="1:4">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>669</v>
       </c>
@@ -20414,7 +20495,7 @@
         <v>1457279427000</v>
       </c>
     </row>
-    <row r="548" spans="1:4" hidden="1">
+    <row r="548" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>702</v>
       </c>
@@ -20428,7 +20509,7 @@
         <v>1457279727000</v>
       </c>
     </row>
-    <row r="549" spans="1:4">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>677</v>
       </c>
@@ -20442,7 +20523,7 @@
         <v>1457279727000</v>
       </c>
     </row>
-    <row r="550" spans="1:4" hidden="1">
+    <row r="550" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>701</v>
       </c>
@@ -20456,7 +20537,7 @@
         <v>1457280027000</v>
       </c>
     </row>
-    <row r="551" spans="1:4">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>680</v>
       </c>
@@ -20470,7 +20551,7 @@
         <v>1457280027000</v>
       </c>
     </row>
-    <row r="552" spans="1:4" hidden="1">
+    <row r="552" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>706</v>
       </c>
@@ -20484,7 +20565,7 @@
         <v>1457280327000</v>
       </c>
     </row>
-    <row r="553" spans="1:4">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>692</v>
       </c>
@@ -20498,7 +20579,7 @@
         <v>1457280327000</v>
       </c>
     </row>
-    <row r="554" spans="1:4" hidden="1">
+    <row r="554" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>706</v>
       </c>
@@ -20512,7 +20593,7 @@
         <v>1457280627000</v>
       </c>
     </row>
-    <row r="555" spans="1:4">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>710</v>
       </c>
@@ -20526,7 +20607,7 @@
         <v>1457280627000</v>
       </c>
     </row>
-    <row r="556" spans="1:4" hidden="1">
+    <row r="556" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>719</v>
       </c>
@@ -20540,7 +20621,7 @@
         <v>1457280927000</v>
       </c>
     </row>
-    <row r="557" spans="1:4">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A557">
         <v>729</v>
       </c>
@@ -20554,7 +20635,7 @@
         <v>1457280927000</v>
       </c>
     </row>
-    <row r="558" spans="1:4" hidden="1">
+    <row r="558" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>709</v>
       </c>
@@ -20568,7 +20649,7 @@
         <v>1457281227000</v>
       </c>
     </row>
-    <row r="559" spans="1:4">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A559">
         <v>695</v>
       </c>
@@ -20582,7 +20663,7 @@
         <v>1457281227000</v>
       </c>
     </row>
-    <row r="560" spans="1:4" hidden="1">
+    <row r="560" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>713</v>
       </c>
@@ -20596,7 +20677,7 @@
         <v>1457281527000</v>
       </c>
     </row>
-    <row r="561" spans="1:4">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A561">
         <v>707</v>
       </c>
@@ -20610,7 +20691,7 @@
         <v>1457281527000</v>
       </c>
     </row>
-    <row r="562" spans="1:4" hidden="1">
+    <row r="562" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A562">
         <v>739</v>
       </c>
@@ -20624,7 +20705,7 @@
         <v>1457281827000</v>
       </c>
     </row>
-    <row r="563" spans="1:4">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A563">
         <v>695</v>
       </c>
@@ -20638,7 +20719,7 @@
         <v>1457281827000</v>
       </c>
     </row>
-    <row r="564" spans="1:4" hidden="1">
+    <row r="564" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A564">
         <v>733</v>
       </c>
@@ -20652,7 +20733,7 @@
         <v>1457282127000</v>
       </c>
     </row>
-    <row r="565" spans="1:4">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A565">
         <v>691</v>
       </c>
@@ -20666,7 +20747,7 @@
         <v>1457282127000</v>
       </c>
     </row>
-    <row r="566" spans="1:4" hidden="1">
+    <row r="566" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A566">
         <v>726</v>
       </c>
@@ -20680,7 +20761,7 @@
         <v>1457282427000</v>
       </c>
     </row>
-    <row r="567" spans="1:4">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A567">
         <v>687</v>
       </c>
@@ -20694,7 +20775,7 @@
         <v>1457282427000</v>
       </c>
     </row>
-    <row r="568" spans="1:4" hidden="1">
+    <row r="568" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A568">
         <v>725</v>
       </c>
@@ -20708,7 +20789,7 @@
         <v>1457282727000</v>
       </c>
     </row>
-    <row r="569" spans="1:4">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A569">
         <v>675</v>
       </c>
@@ -20722,7 +20803,7 @@
         <v>1457282727000</v>
       </c>
     </row>
-    <row r="570" spans="1:4" hidden="1">
+    <row r="570" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A570">
         <v>719</v>
       </c>
@@ -20736,7 +20817,7 @@
         <v>1457283027000</v>
       </c>
     </row>
-    <row r="571" spans="1:4">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A571">
         <v>712</v>
       </c>
@@ -20750,7 +20831,7 @@
         <v>1457283027000</v>
       </c>
     </row>
-    <row r="572" spans="1:4" hidden="1">
+    <row r="572" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A572">
         <v>700</v>
       </c>
@@ -20764,7 +20845,7 @@
         <v>1457283327000</v>
       </c>
     </row>
-    <row r="573" spans="1:4">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A573">
         <v>690</v>
       </c>
@@ -20778,7 +20859,7 @@
         <v>1457283327000</v>
       </c>
     </row>
-    <row r="574" spans="1:4" hidden="1">
+    <row r="574" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A574">
         <v>692</v>
       </c>
@@ -20792,7 +20873,7 @@
         <v>1457283627000</v>
       </c>
     </row>
-    <row r="575" spans="1:4">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A575">
         <v>682</v>
       </c>
@@ -20806,7 +20887,7 @@
         <v>1457283627000</v>
       </c>
     </row>
-    <row r="576" spans="1:4" hidden="1">
+    <row r="576" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A576">
         <v>700</v>
       </c>
@@ -20820,7 +20901,7 @@
         <v>1457283927000</v>
       </c>
     </row>
-    <row r="577" spans="1:4">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A577">
         <v>684</v>
       </c>
@@ -20834,7 +20915,7 @@
         <v>1457283927000</v>
       </c>
     </row>
-    <row r="578" spans="1:4" hidden="1">
+    <row r="578" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A578">
         <v>695</v>
       </c>
@@ -20848,7 +20929,7 @@
         <v>1457284227000</v>
       </c>
     </row>
-    <row r="579" spans="1:4">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A579">
         <v>697</v>
       </c>
@@ -20862,7 +20943,7 @@
         <v>1457284227000</v>
       </c>
     </row>
-    <row r="580" spans="1:4" hidden="1">
+    <row r="580" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A580">
         <v>698</v>
       </c>
@@ -20876,7 +20957,7 @@
         <v>1457284527000</v>
       </c>
     </row>
-    <row r="581" spans="1:4">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A581">
         <v>682</v>
       </c>
@@ -20890,7 +20971,7 @@
         <v>1457284527000</v>
       </c>
     </row>
-    <row r="582" spans="1:4" hidden="1">
+    <row r="582" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A582">
         <v>698</v>
       </c>
@@ -20904,7 +20985,7 @@
         <v>1457284827000</v>
       </c>
     </row>
-    <row r="583" spans="1:4">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A583">
         <v>685</v>
       </c>
@@ -20918,7 +20999,7 @@
         <v>1457284827000</v>
       </c>
     </row>
-    <row r="584" spans="1:4" hidden="1">
+    <row r="584" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A584">
         <v>697</v>
       </c>
@@ -20932,7 +21013,7 @@
         <v>1457285127000</v>
       </c>
     </row>
-    <row r="585" spans="1:4">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A585">
         <v>697</v>
       </c>
@@ -20946,7 +21027,7 @@
         <v>1457285127000</v>
       </c>
     </row>
-    <row r="586" spans="1:4" hidden="1">
+    <row r="586" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A586">
         <v>696</v>
       </c>
@@ -20960,7 +21041,7 @@
         <v>1457285427000</v>
       </c>
     </row>
-    <row r="587" spans="1:4">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A587">
         <v>685</v>
       </c>
@@ -20974,7 +21055,7 @@
         <v>1457285427000</v>
       </c>
     </row>
-    <row r="588" spans="1:4" hidden="1">
+    <row r="588" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A588">
         <v>700</v>
       </c>
@@ -20988,7 +21069,7 @@
         <v>1457285727000</v>
       </c>
     </row>
-    <row r="589" spans="1:4">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A589">
         <v>716</v>
       </c>
@@ -21002,7 +21083,7 @@
         <v>1457285727000</v>
       </c>
     </row>
-    <row r="590" spans="1:4" hidden="1">
+    <row r="590" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A590">
         <v>701</v>
       </c>
@@ -21016,7 +21097,7 @@
         <v>1457286027000</v>
       </c>
     </row>
-    <row r="591" spans="1:4">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A591">
         <v>716</v>
       </c>
@@ -21030,7 +21111,7 @@
         <v>1457286027000</v>
       </c>
     </row>
-    <row r="592" spans="1:4" hidden="1">
+    <row r="592" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A592">
         <v>702</v>
       </c>
@@ -21044,7 +21125,7 @@
         <v>1457286327000</v>
       </c>
     </row>
-    <row r="593" spans="1:4">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A593">
         <v>680</v>
       </c>
@@ -21058,7 +21139,7 @@
         <v>1457286327000</v>
       </c>
     </row>
-    <row r="594" spans="1:4" hidden="1">
+    <row r="594" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A594">
         <v>703</v>
       </c>
@@ -21072,7 +21153,7 @@
         <v>1457286627000</v>
       </c>
     </row>
-    <row r="595" spans="1:4">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A595">
         <v>704</v>
       </c>
@@ -21086,7 +21167,7 @@
         <v>1457286627000</v>
       </c>
     </row>
-    <row r="596" spans="1:4" hidden="1">
+    <row r="596" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A596">
         <v>705</v>
       </c>
@@ -21100,7 +21181,7 @@
         <v>1457286927000</v>
       </c>
     </row>
-    <row r="597" spans="1:4">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A597">
         <v>718</v>
       </c>
@@ -21114,7 +21195,7 @@
         <v>1457286927000</v>
       </c>
     </row>
-    <row r="598" spans="1:4" hidden="1">
+    <row r="598" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A598">
         <v>706</v>
       </c>
@@ -21128,7 +21209,7 @@
         <v>1457287227000</v>
       </c>
     </row>
-    <row r="599" spans="1:4">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A599">
         <v>720</v>
       </c>
@@ -21142,7 +21223,7 @@
         <v>1457287227000</v>
       </c>
     </row>
-    <row r="600" spans="1:4" hidden="1">
+    <row r="600" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A600">
         <v>727</v>
       </c>
@@ -21156,7 +21237,7 @@
         <v>1457287527000</v>
       </c>
     </row>
-    <row r="601" spans="1:4">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A601">
         <v>706</v>
       </c>
@@ -21170,7 +21251,7 @@
         <v>1457287527000</v>
       </c>
     </row>
-    <row r="602" spans="1:4" hidden="1">
+    <row r="602" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A602">
         <v>731</v>
       </c>
@@ -21184,7 +21265,7 @@
         <v>1457287827000</v>
       </c>
     </row>
-    <row r="603" spans="1:4">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A603">
         <v>698</v>
       </c>
@@ -21198,7 +21279,7 @@
         <v>1457287827000</v>
       </c>
     </row>
-    <row r="604" spans="1:4" hidden="1">
+    <row r="604" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A604">
         <v>729</v>
       </c>
@@ -21212,7 +21293,7 @@
         <v>1457288127000</v>
       </c>
     </row>
-    <row r="605" spans="1:4">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A605">
         <v>720</v>
       </c>
@@ -21226,7 +21307,7 @@
         <v>1457288127000</v>
       </c>
     </row>
-    <row r="606" spans="1:4" hidden="1">
+    <row r="606" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A606">
         <v>727</v>
       </c>
@@ -21240,7 +21321,7 @@
         <v>1457288427000</v>
       </c>
     </row>
-    <row r="607" spans="1:4">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A607">
         <v>722</v>
       </c>
@@ -21254,7 +21335,7 @@
         <v>1457288427000</v>
       </c>
     </row>
-    <row r="608" spans="1:4" hidden="1">
+    <row r="608" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A608">
         <v>728</v>
       </c>
@@ -21268,7 +21349,7 @@
         <v>1457288727000</v>
       </c>
     </row>
-    <row r="609" spans="1:4">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A609">
         <v>720</v>
       </c>
@@ -21282,7 +21363,7 @@
         <v>1457288727000</v>
       </c>
     </row>
-    <row r="610" spans="1:4" hidden="1">
+    <row r="610" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A610">
         <v>726</v>
       </c>
@@ -21296,7 +21377,7 @@
         <v>1457289027000</v>
       </c>
     </row>
-    <row r="611" spans="1:4">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A611">
         <v>709</v>
       </c>
@@ -21310,7 +21391,7 @@
         <v>1457289027000</v>
       </c>
     </row>
-    <row r="612" spans="1:4" hidden="1">
+    <row r="612" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A612">
         <v>732</v>
       </c>
@@ -21324,7 +21405,7 @@
         <v>1457289327000</v>
       </c>
     </row>
-    <row r="613" spans="1:4">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A613">
         <v>691</v>
       </c>
@@ -21338,7 +21419,7 @@
         <v>1457289327000</v>
       </c>
     </row>
-    <row r="614" spans="1:4" hidden="1">
+    <row r="614" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A614">
         <v>737</v>
       </c>
@@ -21352,7 +21433,7 @@
         <v>1457289627000</v>
       </c>
     </row>
-    <row r="615" spans="1:4">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A615">
         <v>687</v>
       </c>
@@ -21366,7 +21447,7 @@
         <v>1457289627000</v>
       </c>
     </row>
-    <row r="616" spans="1:4" hidden="1">
+    <row r="616" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A616">
         <v>737</v>
       </c>
@@ -21380,7 +21461,7 @@
         <v>1457289927000</v>
       </c>
     </row>
-    <row r="617" spans="1:4">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A617">
         <v>692</v>
       </c>
@@ -21394,7 +21475,7 @@
         <v>1457289927000</v>
       </c>
     </row>
-    <row r="618" spans="1:4" hidden="1">
+    <row r="618" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A618">
         <v>734</v>
       </c>
@@ -21408,7 +21489,7 @@
         <v>1457290227000</v>
       </c>
     </row>
-    <row r="619" spans="1:4">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A619">
         <v>687</v>
       </c>
@@ -21422,7 +21503,7 @@
         <v>1457290227000</v>
       </c>
     </row>
-    <row r="620" spans="1:4" hidden="1">
+    <row r="620" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A620">
         <v>733</v>
       </c>
@@ -21436,7 +21517,7 @@
         <v>1457290527000</v>
       </c>
     </row>
-    <row r="621" spans="1:4">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A621">
         <v>675</v>
       </c>
@@ -21450,7 +21531,7 @@
         <v>1457290527000</v>
       </c>
     </row>
-    <row r="622" spans="1:4" hidden="1">
+    <row r="622" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A622">
         <v>739</v>
       </c>
@@ -21464,7 +21545,7 @@
         <v>1457290827000</v>
       </c>
     </row>
-    <row r="623" spans="1:4">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A623">
         <v>668</v>
       </c>
@@ -21478,7 +21559,7 @@
         <v>1457290827000</v>
       </c>
     </row>
-    <row r="624" spans="1:4" hidden="1">
+    <row r="624" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A624">
         <v>734</v>
       </c>
@@ -21492,7 +21573,7 @@
         <v>1457291127000</v>
       </c>
     </row>
-    <row r="625" spans="1:4">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A625">
         <v>673</v>
       </c>
@@ -21506,7 +21587,7 @@
         <v>1457291127000</v>
       </c>
     </row>
-    <row r="626" spans="1:4" hidden="1">
+    <row r="626" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A626">
         <v>756</v>
       </c>
@@ -21520,7 +21601,7 @@
         <v>1457291427000</v>
       </c>
     </row>
-    <row r="627" spans="1:4">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A627">
         <v>669</v>
       </c>
@@ -21534,7 +21615,7 @@
         <v>1457291427000</v>
       </c>
     </row>
-    <row r="628" spans="1:4" hidden="1">
+    <row r="628" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A628">
         <v>751</v>
       </c>
@@ -21548,7 +21629,7 @@
         <v>1457291727000</v>
       </c>
     </row>
-    <row r="629" spans="1:4">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A629">
         <v>667</v>
       </c>
@@ -21562,7 +21643,7 @@
         <v>1457291727000</v>
       </c>
     </row>
-    <row r="630" spans="1:4" hidden="1">
+    <row r="630" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A630">
         <v>749</v>
       </c>
@@ -21576,7 +21657,7 @@
         <v>1457292027000</v>
       </c>
     </row>
-    <row r="631" spans="1:4">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A631">
         <v>666</v>
       </c>
@@ -21590,7 +21671,7 @@
         <v>1457292027000</v>
       </c>
     </row>
-    <row r="632" spans="1:4" hidden="1">
+    <row r="632" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A632">
         <v>745</v>
       </c>
@@ -21604,7 +21685,7 @@
         <v>1457292327000</v>
       </c>
     </row>
-    <row r="633" spans="1:4">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A633">
         <v>704</v>
       </c>
@@ -21618,7 +21699,7 @@
         <v>1457292327000</v>
       </c>
     </row>
-    <row r="634" spans="1:4" hidden="1">
+    <row r="634" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A634">
         <v>737</v>
       </c>
@@ -21632,7 +21713,7 @@
         <v>1457292627000</v>
       </c>
     </row>
-    <row r="635" spans="1:4">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A635">
         <v>703</v>
       </c>
@@ -21646,7 +21727,7 @@
         <v>1457292627000</v>
       </c>
     </row>
-    <row r="636" spans="1:4" hidden="1">
+    <row r="636" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A636">
         <v>702</v>
       </c>
@@ -21660,7 +21741,7 @@
         <v>1457292927000</v>
       </c>
     </row>
-    <row r="637" spans="1:4">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A637">
         <v>693</v>
       </c>
@@ -21674,7 +21755,7 @@
         <v>1457292927000</v>
       </c>
     </row>
-    <row r="638" spans="1:4" hidden="1">
+    <row r="638" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A638">
         <v>703</v>
       </c>
@@ -21688,7 +21769,7 @@
         <v>1457293227000</v>
       </c>
     </row>
-    <row r="639" spans="1:4">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A639">
         <v>677</v>
       </c>
@@ -21702,7 +21783,7 @@
         <v>1457293227000</v>
       </c>
     </row>
-    <row r="640" spans="1:4" hidden="1">
+    <row r="640" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A640">
         <v>700</v>
       </c>
@@ -21716,7 +21797,7 @@
         <v>1457293527000</v>
       </c>
     </row>
-    <row r="641" spans="1:4">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A641">
         <v>663</v>
       </c>
@@ -21730,7 +21811,7 @@
         <v>1457293527000</v>
       </c>
     </row>
-    <row r="642" spans="1:4" hidden="1">
+    <row r="642" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A642">
         <v>697</v>
       </c>
@@ -21744,7 +21825,7 @@
         <v>1457293827000</v>
       </c>
     </row>
-    <row r="643" spans="1:4">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A643">
         <v>657</v>
       </c>
@@ -21758,7 +21839,7 @@
         <v>1457293827000</v>
       </c>
     </row>
-    <row r="644" spans="1:4" hidden="1">
+    <row r="644" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A644">
         <v>695</v>
       </c>
@@ -21772,7 +21853,7 @@
         <v>1457294127000</v>
       </c>
     </row>
-    <row r="645" spans="1:4">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A645">
         <v>667</v>
       </c>
@@ -21786,7 +21867,7 @@
         <v>1457294127000</v>
       </c>
     </row>
-    <row r="646" spans="1:4" hidden="1">
+    <row r="646" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A646">
         <v>696</v>
       </c>
@@ -21800,7 +21881,7 @@
         <v>1457294427000</v>
       </c>
     </row>
-    <row r="647" spans="1:4">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A647">
         <v>661</v>
       </c>
@@ -21814,7 +21895,7 @@
         <v>1457294427000</v>
       </c>
     </row>
-    <row r="648" spans="1:4" hidden="1">
+    <row r="648" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A648">
         <v>699</v>
       </c>
@@ -21828,7 +21909,7 @@
         <v>1457294727000</v>
       </c>
     </row>
-    <row r="649" spans="1:4">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A649">
         <v>660</v>
       </c>
@@ -21842,7 +21923,7 @@
         <v>1457294727000</v>
       </c>
     </row>
-    <row r="650" spans="1:4" hidden="1">
+    <row r="650" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A650">
         <v>693</v>
       </c>
@@ -21856,7 +21937,7 @@
         <v>1457295027000</v>
       </c>
     </row>
-    <row r="651" spans="1:4">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A651">
         <v>659</v>
       </c>
@@ -21870,7 +21951,7 @@
         <v>1457295027000</v>
       </c>
     </row>
-    <row r="652" spans="1:4" hidden="1">
+    <row r="652" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A652">
         <v>694</v>
       </c>
@@ -21884,7 +21965,7 @@
         <v>1457295327000</v>
       </c>
     </row>
-    <row r="653" spans="1:4">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A653">
         <v>659</v>
       </c>
@@ -21898,7 +21979,7 @@
         <v>1457295327000</v>
       </c>
     </row>
-    <row r="654" spans="1:4" hidden="1">
+    <row r="654" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A654">
         <v>699</v>
       </c>
@@ -21912,7 +21993,7 @@
         <v>1457295627000</v>
       </c>
     </row>
-    <row r="655" spans="1:4">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A655">
         <v>660</v>
       </c>
@@ -21926,7 +22007,7 @@
         <v>1457295627000</v>
       </c>
     </row>
-    <row r="656" spans="1:4" hidden="1">
+    <row r="656" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A656">
         <v>696</v>
       </c>
@@ -21940,7 +22021,7 @@
         <v>1457295927000</v>
       </c>
     </row>
-    <row r="657" spans="1:4">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A657">
         <v>700</v>
       </c>
@@ -21954,7 +22035,7 @@
         <v>1457295927000</v>
       </c>
     </row>
-    <row r="658" spans="1:4" hidden="1">
+    <row r="658" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A658">
         <v>698</v>
       </c>
@@ -21968,7 +22049,7 @@
         <v>1457296227000</v>
       </c>
     </row>
-    <row r="659" spans="1:4">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A659">
         <v>682</v>
       </c>
@@ -21982,7 +22063,7 @@
         <v>1457296227000</v>
       </c>
     </row>
-    <row r="660" spans="1:4" hidden="1">
+    <row r="660" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A660">
         <v>688</v>
       </c>
@@ -21996,7 +22077,7 @@
         <v>1457296527000</v>
       </c>
     </row>
-    <row r="661" spans="1:4">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A661">
         <v>678</v>
       </c>
@@ -22010,7 +22091,7 @@
         <v>1457296527000</v>
       </c>
     </row>
-    <row r="662" spans="1:4" hidden="1">
+    <row r="662" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A662">
         <v>687</v>
       </c>
@@ -22024,7 +22105,7 @@
         <v>1457296827000</v>
       </c>
     </row>
-    <row r="663" spans="1:4">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A663">
         <v>664</v>
       </c>
@@ -22038,7 +22119,7 @@
         <v>1457296827000</v>
       </c>
     </row>
-    <row r="664" spans="1:4" hidden="1">
+    <row r="664" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A664">
         <v>687</v>
       </c>
@@ -22052,7 +22133,7 @@
         <v>1457297127000</v>
       </c>
     </row>
-    <row r="665" spans="1:4">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A665">
         <v>673</v>
       </c>
@@ -22066,7 +22147,7 @@
         <v>1457297127000</v>
       </c>
     </row>
-    <row r="666" spans="1:4" hidden="1">
+    <row r="666" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A666">
         <v>702</v>
       </c>
@@ -22080,7 +22161,7 @@
         <v>1457297427000</v>
       </c>
     </row>
-    <row r="667" spans="1:4">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A667">
         <v>680</v>
       </c>
@@ -22094,7 +22175,7 @@
         <v>1457297427000</v>
       </c>
     </row>
-    <row r="668" spans="1:4" hidden="1">
+    <row r="668" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A668">
         <v>694</v>
       </c>
@@ -22108,7 +22189,7 @@
         <v>1457297727000</v>
       </c>
     </row>
-    <row r="669" spans="1:4">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A669">
         <v>670</v>
       </c>
@@ -22122,7 +22203,7 @@
         <v>1457297727000</v>
       </c>
     </row>
-    <row r="670" spans="1:4" hidden="1">
+    <row r="670" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A670">
         <v>684</v>
       </c>
@@ -22136,7 +22217,7 @@
         <v>1457298027000</v>
       </c>
     </row>
-    <row r="671" spans="1:4">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A671">
         <v>678</v>
       </c>
@@ -22150,7 +22231,7 @@
         <v>1457298027000</v>
       </c>
     </row>
-    <row r="672" spans="1:4" hidden="1">
+    <row r="672" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A672">
         <v>665</v>
       </c>
@@ -22164,7 +22245,7 @@
         <v>1457298327000</v>
       </c>
     </row>
-    <row r="673" spans="1:4">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A673">
         <v>671</v>
       </c>
@@ -22178,7 +22259,7 @@
         <v>1457298327000</v>
       </c>
     </row>
-    <row r="674" spans="1:4" hidden="1">
+    <row r="674" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A674">
         <v>659</v>
       </c>
@@ -22192,7 +22273,7 @@
         <v>1457298627000</v>
       </c>
     </row>
-    <row r="675" spans="1:4">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A675">
         <v>665</v>
       </c>
@@ -22206,7 +22287,7 @@
         <v>1457298627000</v>
       </c>
     </row>
-    <row r="676" spans="1:4" hidden="1">
+    <row r="676" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A676">
         <v>658</v>
       </c>
@@ -22220,7 +22301,7 @@
         <v>1457300127000</v>
       </c>
     </row>
-    <row r="677" spans="1:4">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A677">
         <v>661</v>
       </c>
@@ -22234,7 +22315,7 @@
         <v>1457300127000</v>
       </c>
     </row>
-    <row r="678" spans="1:4" hidden="1">
+    <row r="678" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A678">
         <v>657</v>
       </c>
@@ -22248,7 +22329,7 @@
         <v>1457300427000</v>
       </c>
     </row>
-    <row r="679" spans="1:4">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A679">
         <v>664</v>
       </c>
@@ -22262,7 +22343,7 @@
         <v>1457300427000</v>
       </c>
     </row>
-    <row r="680" spans="1:4" hidden="1">
+    <row r="680" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A680">
         <v>664</v>
       </c>
@@ -22276,7 +22357,7 @@
         <v>1457300727000</v>
       </c>
     </row>
-    <row r="681" spans="1:4">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A681">
         <v>684</v>
       </c>
@@ -22290,7 +22371,7 @@
         <v>1457300727000</v>
       </c>
     </row>
-    <row r="682" spans="1:4" hidden="1">
+    <row r="682" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A682">
         <v>661</v>
       </c>
@@ -22304,7 +22385,7 @@
         <v>1457301027000</v>
       </c>
     </row>
-    <row r="683" spans="1:4">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A683">
         <v>721</v>
       </c>
@@ -22318,7 +22399,7 @@
         <v>1457301027000</v>
       </c>
     </row>
-    <row r="684" spans="1:4" hidden="1">
+    <row r="684" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A684">
         <v>656</v>
       </c>
@@ -22332,7 +22413,7 @@
         <v>1457301327000</v>
       </c>
     </row>
-    <row r="685" spans="1:4">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A685">
         <v>676</v>
       </c>
@@ -22346,7 +22427,7 @@
         <v>1457301327000</v>
       </c>
     </row>
-    <row r="686" spans="1:4" hidden="1">
+    <row r="686" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A686">
         <v>658</v>
       </c>
@@ -22360,7 +22441,7 @@
         <v>1457301627000</v>
       </c>
     </row>
-    <row r="687" spans="1:4">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A687">
         <v>662</v>
       </c>
@@ -22374,7 +22455,7 @@
         <v>1457301627000</v>
       </c>
     </row>
-    <row r="688" spans="1:4" hidden="1">
+    <row r="688" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A688">
         <v>658</v>
       </c>
@@ -22388,7 +22469,7 @@
         <v>1457301628000</v>
       </c>
     </row>
-    <row r="689" spans="1:4">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A689">
         <v>662</v>
       </c>
@@ -22402,7 +22483,7 @@
         <v>1457301628000</v>
       </c>
     </row>
-    <row r="690" spans="1:4" hidden="1">
+    <row r="690" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A690">
         <v>776</v>
       </c>
@@ -22416,7 +22497,7 @@
         <v>1457323227000</v>
       </c>
     </row>
-    <row r="691" spans="1:4">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A691">
         <v>668</v>
       </c>
@@ -22430,7 +22511,7 @@
         <v>1457323227000</v>
       </c>
     </row>
-    <row r="692" spans="1:4" hidden="1">
+    <row r="692" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A692">
         <v>764</v>
       </c>
@@ -22444,7 +22525,7 @@
         <v>1457323527000</v>
       </c>
     </row>
-    <row r="693" spans="1:4">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A693">
         <v>668</v>
       </c>
@@ -22458,7 +22539,7 @@
         <v>1457323527000</v>
       </c>
     </row>
-    <row r="694" spans="1:4" hidden="1">
+    <row r="694" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A694">
         <v>757</v>
       </c>
@@ -22472,7 +22553,7 @@
         <v>1457323827000</v>
       </c>
     </row>
-    <row r="695" spans="1:4">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A695">
         <v>669</v>
       </c>
@@ -22486,7 +22567,7 @@
         <v>1457323827000</v>
       </c>
     </row>
-    <row r="696" spans="1:4" hidden="1">
+    <row r="696" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A696">
         <v>753</v>
       </c>
@@ -22500,7 +22581,7 @@
         <v>1457324127000</v>
       </c>
     </row>
-    <row r="697" spans="1:4">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A697">
         <v>688</v>
       </c>
@@ -22514,7 +22595,7 @@
         <v>1457324127000</v>
       </c>
     </row>
-    <row r="698" spans="1:4" hidden="1">
+    <row r="698" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A698">
         <v>749</v>
       </c>
@@ -22528,7 +22609,7 @@
         <v>1457324427000</v>
       </c>
     </row>
-    <row r="699" spans="1:4">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A699">
         <v>700</v>
       </c>
@@ -22542,7 +22623,7 @@
         <v>1457324427000</v>
       </c>
     </row>
-    <row r="700" spans="1:4" hidden="1">
+    <row r="700" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A700">
         <v>748</v>
       </c>
@@ -22556,7 +22637,7 @@
         <v>1457324727000</v>
       </c>
     </row>
-    <row r="701" spans="1:4">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A701">
         <v>723</v>
       </c>
@@ -22570,7 +22651,7 @@
         <v>1457324727000</v>
       </c>
     </row>
-    <row r="702" spans="1:4" hidden="1">
+    <row r="702" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A702">
         <v>750</v>
       </c>
@@ -22584,7 +22665,7 @@
         <v>1457325027000</v>
       </c>
     </row>
-    <row r="703" spans="1:4">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A703">
         <v>703</v>
       </c>
@@ -22598,7 +22679,7 @@
         <v>1457325027000</v>
       </c>
     </row>
-    <row r="704" spans="1:4" hidden="1">
+    <row r="704" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A704">
         <v>751</v>
       </c>
@@ -22612,7 +22693,7 @@
         <v>1457325327000</v>
       </c>
     </row>
-    <row r="705" spans="1:4">
+    <row r="705" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A705">
         <v>714</v>
       </c>
@@ -22626,7 +22707,7 @@
         <v>1457325327000</v>
       </c>
     </row>
-    <row r="706" spans="1:4" hidden="1">
+    <row r="706" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A706">
         <v>751</v>
       </c>
@@ -22640,7 +22721,7 @@
         <v>1457325627000</v>
       </c>
     </row>
-    <row r="707" spans="1:4">
+    <row r="707" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A707">
         <v>724</v>
       </c>
@@ -22654,7 +22735,7 @@
         <v>1457325627000</v>
       </c>
     </row>
-    <row r="708" spans="1:4" hidden="1">
+    <row r="708" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A708">
         <v>747</v>
       </c>
@@ -22668,7 +22749,7 @@
         <v>1457325927000</v>
       </c>
     </row>
-    <row r="709" spans="1:4">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A709">
         <v>702</v>
       </c>
@@ -22682,7 +22763,7 @@
         <v>1457325927000</v>
       </c>
     </row>
-    <row r="710" spans="1:4" hidden="1">
+    <row r="710" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A710">
         <v>744</v>
       </c>
@@ -22696,7 +22777,7 @@
         <v>1457326227000</v>
       </c>
     </row>
-    <row r="711" spans="1:4">
+    <row r="711" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A711">
         <v>695</v>
       </c>
@@ -22710,7 +22791,7 @@
         <v>1457326227000</v>
       </c>
     </row>
-    <row r="712" spans="1:4" hidden="1">
+    <row r="712" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A712">
         <v>744</v>
       </c>
@@ -22724,7 +22805,7 @@
         <v>1457326527000</v>
       </c>
     </row>
-    <row r="713" spans="1:4">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A713">
         <v>690</v>
       </c>
@@ -22738,7 +22819,7 @@
         <v>1457326527000</v>
       </c>
     </row>
-    <row r="714" spans="1:4" hidden="1">
+    <row r="714" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A714">
         <v>742</v>
       </c>
@@ -22752,7 +22833,7 @@
         <v>1457326827000</v>
       </c>
     </row>
-    <row r="715" spans="1:4">
+    <row r="715" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A715">
         <v>698</v>
       </c>
@@ -22766,7 +22847,7 @@
         <v>1457326827000</v>
       </c>
     </row>
-    <row r="716" spans="1:4" hidden="1">
+    <row r="716" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A716">
         <v>758</v>
       </c>
@@ -22780,7 +22861,7 @@
         <v>1457327127000</v>
       </c>
     </row>
-    <row r="717" spans="1:4">
+    <row r="717" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A717">
         <v>715</v>
       </c>
@@ -22794,7 +22875,7 @@
         <v>1457327127000</v>
       </c>
     </row>
-    <row r="718" spans="1:4" hidden="1">
+    <row r="718" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A718">
         <v>761</v>
       </c>
@@ -22808,7 +22889,7 @@
         <v>1457327427000</v>
       </c>
     </row>
-    <row r="719" spans="1:4">
+    <row r="719" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A719">
         <v>721</v>
       </c>
@@ -22822,7 +22903,7 @@
         <v>1457327427000</v>
       </c>
     </row>
-    <row r="720" spans="1:4" hidden="1">
+    <row r="720" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A720">
         <v>767</v>
       </c>
@@ -22836,7 +22917,7 @@
         <v>1457327727000</v>
       </c>
     </row>
-    <row r="721" spans="1:4">
+    <row r="721" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A721">
         <v>730</v>
       </c>
@@ -22850,7 +22931,7 @@
         <v>1457327727000</v>
       </c>
     </row>
-    <row r="722" spans="1:4" hidden="1">
+    <row r="722" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A722">
         <v>768</v>
       </c>
@@ -22864,7 +22945,7 @@
         <v>1457328027000</v>
       </c>
     </row>
-    <row r="723" spans="1:4">
+    <row r="723" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A723">
         <v>722</v>
       </c>
@@ -22878,7 +22959,7 @@
         <v>1457328027000</v>
       </c>
     </row>
-    <row r="724" spans="1:4" hidden="1">
+    <row r="724" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A724">
         <v>773</v>
       </c>
@@ -22892,7 +22973,7 @@
         <v>1457328327000</v>
       </c>
     </row>
-    <row r="725" spans="1:4">
+    <row r="725" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A725">
         <v>742</v>
       </c>
@@ -22906,7 +22987,7 @@
         <v>1457328327000</v>
       </c>
     </row>
-    <row r="726" spans="1:4" hidden="1">
+    <row r="726" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A726">
         <v>780</v>
       </c>
@@ -22920,7 +23001,7 @@
         <v>1457328627000</v>
       </c>
     </row>
-    <row r="727" spans="1:4">
+    <row r="727" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A727">
         <v>810</v>
       </c>
@@ -22934,7 +23015,7 @@
         <v>1457328627000</v>
       </c>
     </row>
-    <row r="728" spans="1:4" hidden="1">
+    <row r="728" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A728">
         <v>850</v>
       </c>
@@ -22948,7 +23029,7 @@
         <v>1457328927000</v>
       </c>
     </row>
-    <row r="729" spans="1:4">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A729">
         <v>786</v>
       </c>
@@ -22962,7 +23043,7 @@
         <v>1457328927000</v>
       </c>
     </row>
-    <row r="730" spans="1:4" hidden="1">
+    <row r="730" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A730">
         <v>861</v>
       </c>
@@ -22976,7 +23057,7 @@
         <v>1457329227000</v>
       </c>
     </row>
-    <row r="731" spans="1:4">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A731">
         <v>776</v>
       </c>
@@ -22990,7 +23071,7 @@
         <v>1457329227000</v>
       </c>
     </row>
-    <row r="732" spans="1:4" hidden="1">
+    <row r="732" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A732">
         <v>829</v>
       </c>
@@ -23004,7 +23085,7 @@
         <v>1457329527000</v>
       </c>
     </row>
-    <row r="733" spans="1:4">
+    <row r="733" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A733">
         <v>748</v>
       </c>
@@ -23018,7 +23099,7 @@
         <v>1457329527000</v>
       </c>
     </row>
-    <row r="734" spans="1:4" hidden="1">
+    <row r="734" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A734">
         <v>799</v>
       </c>
@@ -23032,7 +23113,7 @@
         <v>1457329827000</v>
       </c>
     </row>
-    <row r="735" spans="1:4">
+    <row r="735" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A735">
         <v>770</v>
       </c>
@@ -23046,7 +23127,7 @@
         <v>1457329827000</v>
       </c>
     </row>
-    <row r="736" spans="1:4" hidden="1">
+    <row r="736" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A736">
         <v>801</v>
       </c>
@@ -23060,7 +23141,7 @@
         <v>1457330127000</v>
       </c>
     </row>
-    <row r="737" spans="1:4">
+    <row r="737" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A737">
         <v>751</v>
       </c>
@@ -23074,7 +23155,7 @@
         <v>1457330127000</v>
       </c>
     </row>
-    <row r="738" spans="1:4" hidden="1">
+    <row r="738" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A738">
         <v>826</v>
       </c>
@@ -23088,7 +23169,7 @@
         <v>1457330427000</v>
       </c>
     </row>
-    <row r="739" spans="1:4">
+    <row r="739" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A739">
         <v>772</v>
       </c>
@@ -23102,7 +23183,7 @@
         <v>1457330427000</v>
       </c>
     </row>
-    <row r="740" spans="1:4" hidden="1">
+    <row r="740" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A740">
         <v>883</v>
       </c>
@@ -23116,7 +23197,7 @@
         <v>1457330727000</v>
       </c>
     </row>
-    <row r="741" spans="1:4">
+    <row r="741" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A741">
         <v>783</v>
       </c>
@@ -23130,7 +23211,7 @@
         <v>1457330727000</v>
       </c>
     </row>
-    <row r="742" spans="1:4" hidden="1">
+    <row r="742" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A742">
         <v>904</v>
       </c>
@@ -23144,7 +23225,7 @@
         <v>1457331027000</v>
       </c>
     </row>
-    <row r="743" spans="1:4">
+    <row r="743" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A743">
         <v>772</v>
       </c>
@@ -23158,7 +23239,7 @@
         <v>1457331027000</v>
       </c>
     </row>
-    <row r="744" spans="1:4" hidden="1">
+    <row r="744" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A744">
         <v>892</v>
       </c>
@@ -23172,7 +23253,7 @@
         <v>1457331327000</v>
       </c>
     </row>
-    <row r="745" spans="1:4">
+    <row r="745" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A745">
         <v>803</v>
       </c>
@@ -23186,7 +23267,7 @@
         <v>1457331327000</v>
       </c>
     </row>
-    <row r="746" spans="1:4" hidden="1">
+    <row r="746" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A746">
         <v>884</v>
       </c>
@@ -23200,7 +23281,7 @@
         <v>1457331627000</v>
       </c>
     </row>
-    <row r="747" spans="1:4">
+    <row r="747" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A747">
         <v>857</v>
       </c>
@@ -23214,7 +23295,7 @@
         <v>1457331627000</v>
       </c>
     </row>
-    <row r="748" spans="1:4" hidden="1">
+    <row r="748" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A748">
         <v>932</v>
       </c>
@@ -23228,7 +23309,7 @@
         <v>1457331927000</v>
       </c>
     </row>
-    <row r="749" spans="1:4">
+    <row r="749" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A749">
         <v>958</v>
       </c>
@@ -23242,7 +23323,7 @@
         <v>1457331927000</v>
       </c>
     </row>
-    <row r="750" spans="1:4" hidden="1">
+    <row r="750" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A750">
         <v>1010</v>
       </c>
@@ -23256,7 +23337,7 @@
         <v>1457332227000</v>
       </c>
     </row>
-    <row r="751" spans="1:4">
+    <row r="751" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A751">
         <v>967</v>
       </c>
@@ -23270,7 +23351,7 @@
         <v>1457332227000</v>
       </c>
     </row>
-    <row r="752" spans="1:4" hidden="1">
+    <row r="752" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A752">
         <v>1034</v>
       </c>
@@ -23284,7 +23365,7 @@
         <v>1457332527000</v>
       </c>
     </row>
-    <row r="753" spans="1:4">
+    <row r="753" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A753">
         <v>1030</v>
       </c>
@@ -23298,7 +23379,7 @@
         <v>1457332527000</v>
       </c>
     </row>
-    <row r="754" spans="1:4" hidden="1">
+    <row r="754" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A754">
         <v>1114</v>
       </c>
@@ -23312,7 +23393,7 @@
         <v>1457332827000</v>
       </c>
     </row>
-    <row r="755" spans="1:4">
+    <row r="755" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A755">
         <v>1014</v>
       </c>
@@ -23326,7 +23407,7 @@
         <v>1457332827000</v>
       </c>
     </row>
-    <row r="756" spans="1:4" hidden="1">
+    <row r="756" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A756">
         <v>1087</v>
       </c>
@@ -23340,7 +23421,7 @@
         <v>1457333127000</v>
       </c>
     </row>
-    <row r="757" spans="1:4">
+    <row r="757" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A757">
         <v>972</v>
       </c>
@@ -23354,7 +23435,7 @@
         <v>1457333127000</v>
       </c>
     </row>
-    <row r="758" spans="1:4" hidden="1">
+    <row r="758" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A758">
         <v>1067</v>
       </c>
@@ -23368,7 +23449,7 @@
         <v>1457333427000</v>
       </c>
     </row>
-    <row r="759" spans="1:4">
+    <row r="759" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A759">
         <v>1023</v>
       </c>
@@ -23382,7 +23463,7 @@
         <v>1457333427000</v>
       </c>
     </row>
-    <row r="760" spans="1:4" hidden="1">
+    <row r="760" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A760">
         <v>1010</v>
       </c>
@@ -23396,7 +23477,7 @@
         <v>1457333727000</v>
       </c>
     </row>
-    <row r="761" spans="1:4">
+    <row r="761" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A761">
         <v>1015</v>
       </c>
@@ -23410,7 +23491,7 @@
         <v>1457333727000</v>
       </c>
     </row>
-    <row r="762" spans="1:4" hidden="1">
+    <row r="762" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A762">
         <v>1031</v>
       </c>
@@ -23424,7 +23505,7 @@
         <v>1457334027000</v>
       </c>
     </row>
-    <row r="763" spans="1:4">
+    <row r="763" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A763">
         <v>978</v>
       </c>
@@ -23438,7 +23519,7 @@
         <v>1457334027000</v>
       </c>
     </row>
-    <row r="764" spans="1:4" hidden="1">
+    <row r="764" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A764">
         <v>967</v>
       </c>
@@ -23452,7 +23533,7 @@
         <v>1457334327000</v>
       </c>
     </row>
-    <row r="765" spans="1:4">
+    <row r="765" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A765">
         <v>912</v>
       </c>
@@ -23466,7 +23547,7 @@
         <v>1457334327000</v>
       </c>
     </row>
-    <row r="766" spans="1:4" hidden="1">
+    <row r="766" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A766">
         <v>931</v>
       </c>
@@ -23480,7 +23561,7 @@
         <v>1457334627000</v>
       </c>
     </row>
-    <row r="767" spans="1:4">
+    <row r="767" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A767">
         <v>957</v>
       </c>
@@ -23494,7 +23575,7 @@
         <v>1457334627000</v>
       </c>
     </row>
-    <row r="768" spans="1:4" hidden="1">
+    <row r="768" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A768">
         <v>1014</v>
       </c>
@@ -23508,7 +23589,7 @@
         <v>1457334927000</v>
       </c>
     </row>
-    <row r="769" spans="1:4">
+    <row r="769" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A769">
         <v>937</v>
       </c>
@@ -23522,7 +23603,7 @@
         <v>1457334927000</v>
       </c>
     </row>
-    <row r="770" spans="1:4" hidden="1">
+    <row r="770" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A770">
         <v>953</v>
       </c>
@@ -23536,7 +23617,7 @@
         <v>1457335227000</v>
       </c>
     </row>
-    <row r="771" spans="1:4">
+    <row r="771" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A771">
         <v>882</v>
       </c>
@@ -23550,7 +23631,7 @@
         <v>1457335227000</v>
       </c>
     </row>
-    <row r="772" spans="1:4" hidden="1">
+    <row r="772" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A772">
         <v>869</v>
       </c>
@@ -23564,7 +23645,7 @@
         <v>1457335527000</v>
       </c>
     </row>
-    <row r="773" spans="1:4">
+    <row r="773" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A773">
         <v>897</v>
       </c>
@@ -23578,7 +23659,7 @@
         <v>1457335527000</v>
       </c>
     </row>
-    <row r="774" spans="1:4" hidden="1">
+    <row r="774" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A774">
         <v>914</v>
       </c>
@@ -23592,7 +23673,7 @@
         <v>1457335827000</v>
       </c>
     </row>
-    <row r="775" spans="1:4">
+    <row r="775" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A775">
         <v>911</v>
       </c>
@@ -23606,7 +23687,7 @@
         <v>1457335827000</v>
       </c>
     </row>
-    <row r="776" spans="1:4" hidden="1">
+    <row r="776" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A776">
         <v>831</v>
       </c>
@@ -23620,7 +23701,7 @@
         <v>1457336127000</v>
       </c>
     </row>
-    <row r="777" spans="1:4">
+    <row r="777" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A777">
         <v>935</v>
       </c>
@@ -23634,7 +23715,7 @@
         <v>1457336127000</v>
       </c>
     </row>
-    <row r="778" spans="1:4" hidden="1">
+    <row r="778" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A778">
         <v>795</v>
       </c>
@@ -23648,7 +23729,7 @@
         <v>1457336427000</v>
       </c>
     </row>
-    <row r="779" spans="1:4">
+    <row r="779" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A779">
         <v>914</v>
       </c>
@@ -23662,7 +23743,7 @@
         <v>1457336427000</v>
       </c>
     </row>
-    <row r="780" spans="1:4" hidden="1">
+    <row r="780" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A780">
         <v>855</v>
       </c>
@@ -23676,7 +23757,7 @@
         <v>1457336727000</v>
       </c>
     </row>
-    <row r="781" spans="1:4">
+    <row r="781" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A781">
         <v>925</v>
       </c>
@@ -23690,7 +23771,7 @@
         <v>1457336727000</v>
       </c>
     </row>
-    <row r="782" spans="1:4" hidden="1">
+    <row r="782" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A782">
         <v>848</v>
       </c>
@@ -23704,7 +23785,7 @@
         <v>1457337027000</v>
       </c>
     </row>
-    <row r="783" spans="1:4">
+    <row r="783" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A783">
         <v>827</v>
       </c>
@@ -23718,7 +23799,7 @@
         <v>1457337027000</v>
       </c>
     </row>
-    <row r="784" spans="1:4" hidden="1">
+    <row r="784" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A784">
         <v>797</v>
       </c>
@@ -23732,7 +23813,7 @@
         <v>1457337327000</v>
       </c>
     </row>
-    <row r="785" spans="1:4">
+    <row r="785" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A785">
         <v>825</v>
       </c>
@@ -23746,7 +23827,7 @@
         <v>1457337327000</v>
       </c>
     </row>
-    <row r="786" spans="1:4" hidden="1">
+    <row r="786" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A786">
         <v>770</v>
       </c>
@@ -23760,7 +23841,7 @@
         <v>1457337627000</v>
       </c>
     </row>
-    <row r="787" spans="1:4">
+    <row r="787" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A787">
         <v>761</v>
       </c>
@@ -23774,7 +23855,7 @@
         <v>1457337627000</v>
       </c>
     </row>
-    <row r="788" spans="1:4" hidden="1">
+    <row r="788" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A788">
         <v>761</v>
       </c>
@@ -23788,7 +23869,7 @@
         <v>1457337927000</v>
       </c>
     </row>
-    <row r="789" spans="1:4">
+    <row r="789" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A789">
         <v>794</v>
       </c>
@@ -23802,7 +23883,7 @@
         <v>1457337927000</v>
       </c>
     </row>
-    <row r="790" spans="1:4" hidden="1">
+    <row r="790" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A790">
         <v>754</v>
       </c>
@@ -23816,7 +23897,7 @@
         <v>1457338227000</v>
       </c>
     </row>
-    <row r="791" spans="1:4">
+    <row r="791" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A791">
         <v>819</v>
       </c>
@@ -23830,7 +23911,7 @@
         <v>1457338227000</v>
       </c>
     </row>
-    <row r="792" spans="1:4" hidden="1">
+    <row r="792" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A792">
         <v>760</v>
       </c>
@@ -23844,7 +23925,7 @@
         <v>1457338527000</v>
       </c>
     </row>
-    <row r="793" spans="1:4">
+    <row r="793" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A793">
         <v>789</v>
       </c>
@@ -23858,7 +23939,7 @@
         <v>1457338527000</v>
       </c>
     </row>
-    <row r="794" spans="1:4" hidden="1">
+    <row r="794" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A794">
         <v>772</v>
       </c>
@@ -23872,7 +23953,7 @@
         <v>1457338827000</v>
       </c>
     </row>
-    <row r="795" spans="1:4">
+    <row r="795" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A795">
         <v>772</v>
       </c>
@@ -23886,7 +23967,7 @@
         <v>1457338827000</v>
       </c>
     </row>
-    <row r="796" spans="1:4" hidden="1">
+    <row r="796" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A796">
         <v>773</v>
       </c>
@@ -23900,7 +23981,7 @@
         <v>1457339127000</v>
       </c>
     </row>
-    <row r="797" spans="1:4">
+    <row r="797" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A797">
         <v>737</v>
       </c>
@@ -23914,7 +23995,7 @@
         <v>1457339127000</v>
       </c>
     </row>
-    <row r="798" spans="1:4" hidden="1">
+    <row r="798" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A798">
         <v>776</v>
       </c>
@@ -23928,7 +24009,7 @@
         <v>1457339427000</v>
       </c>
     </row>
-    <row r="799" spans="1:4">
+    <row r="799" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A799">
         <v>720</v>
       </c>
@@ -23942,7 +24023,7 @@
         <v>1457339427000</v>
       </c>
     </row>
-    <row r="800" spans="1:4" hidden="1">
+    <row r="800" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A800">
         <v>775</v>
       </c>
@@ -23956,7 +24037,7 @@
         <v>1457339727000</v>
       </c>
     </row>
-    <row r="801" spans="1:4">
+    <row r="801" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A801">
         <v>734</v>
       </c>
@@ -23970,7 +24051,7 @@
         <v>1457339727000</v>
       </c>
     </row>
-    <row r="802" spans="1:4" hidden="1">
+    <row r="802" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A802">
         <v>778</v>
       </c>
@@ -23984,7 +24065,7 @@
         <v>1457340027000</v>
       </c>
     </row>
-    <row r="803" spans="1:4">
+    <row r="803" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A803">
         <v>728</v>
       </c>
@@ -23998,7 +24079,7 @@
         <v>1457340027000</v>
       </c>
     </row>
-    <row r="804" spans="1:4" hidden="1">
+    <row r="804" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A804">
         <v>787</v>
       </c>
@@ -24012,7 +24093,7 @@
         <v>1457340327000</v>
       </c>
     </row>
-    <row r="805" spans="1:4">
+    <row r="805" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A805">
         <v>764</v>
       </c>
@@ -24026,7 +24107,7 @@
         <v>1457340327000</v>
       </c>
     </row>
-    <row r="806" spans="1:4" hidden="1">
+    <row r="806" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A806">
         <v>766</v>
       </c>
@@ -24040,7 +24121,7 @@
         <v>1457340627765</v>
       </c>
     </row>
-    <row r="807" spans="1:4">
+    <row r="807" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A807">
         <v>770</v>
       </c>
@@ -24054,7 +24135,7 @@
         <v>1457340627765</v>
       </c>
     </row>
-    <row r="808" spans="1:4" hidden="1">
+    <row r="808" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A808">
         <v>763</v>
       </c>
@@ -24068,7 +24149,7 @@
         <v>1457340927746</v>
       </c>
     </row>
-    <row r="809" spans="1:4">
+    <row r="809" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A809">
         <v>812</v>
       </c>
@@ -24092,24 +24173,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
